--- a/Projects/Project 2025/Statement of Applicability and status of information security controls - ISO27k ISMS 6.1 SoA 2022.xlsx
+++ b/Projects/Project 2025/Statement of Applicability and status of information security controls - ISO27k ISMS 6.1 SoA 2022.xlsx
@@ -887,9 +887,6 @@
     <t xml:space="preserve">Design/plan the ISMS to satisfy the requirements, addressing risks &amp; opportunities</t>
   </si>
   <si>
-    <t xml:space="preserve">Initial</t>
-  </si>
-  <si>
     <t xml:space="preserve">6.1.2</t>
   </si>
   <si>
@@ -1048,6 +1045,9 @@
       </rPr>
       <t xml:space="preserve">competences </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial</t>
   </si>
   <si>
     <t xml:space="preserve">Awareness</t>
@@ -1633,9 +1633,6 @@
     <t xml:space="preserve">Authentication information</t>
   </si>
   <si>
-    <t xml:space="preserve">Defined</t>
-  </si>
-  <si>
     <t xml:space="preserve">A.5.18</t>
   </si>
   <si>
@@ -1685,457 +1682,451 @@
     <t xml:space="preserve">Assessment and decision on information security events</t>
   </si>
   <si>
-    <t xml:space="preserve">Not applicable</t>
-  </si>
-  <si>
     <t xml:space="preserve">A.5.26</t>
   </si>
   <si>
     <t xml:space="preserve">Response to information security incidents</t>
   </si>
   <si>
+    <t xml:space="preserve">A.5.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learning from information security incidents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.5.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collection of evidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.5.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information security during disruption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.5.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICT readiness for business continuity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.5.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legal, statutory, regulatory and contractual requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.5.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intellectual property rights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.5.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protection of records</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.5.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Privacy and protection of personal identifiable information (PII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.5.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Independent review of information security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.5.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compliance with policies, rules and standards for information security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.5.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documented operating procedures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People controls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.6.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.6.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terms and conditions of employment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.6.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information security awareness, education and training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.6.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disciplinary process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.6.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responsibilities after termination or change of employment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.6.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confidentiality or non-disclosure agreements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.6.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remote working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.6.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information security event reporting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical controls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.7.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical security perimeters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.7.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.7.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Securing offices, rooms and facilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.7.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical security monitoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.7.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protecting against physical and environmental threats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.7.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working in secure areas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.7.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clear desk and clear screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.7.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipment siting and protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.7.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Security of assets off-premises</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.7.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storage media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.7.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supporting utilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.7.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabling security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.7.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipment maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.7.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secure disposal or re-use of equipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technological controls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.8.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User end point devices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.8.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Privileged access rights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.8.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information access restriction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.8.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access to source code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.8.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secure authentication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.8.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacity management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.8.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protection against malware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.8.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Management of technical vulnerabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.8.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuration management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.8.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information deletion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.8.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data masking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.8.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data leakage prevention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.8.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information backup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.8.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redundancy of information processing facilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.8.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.8.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitoring activities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.8.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clock synchronization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.8.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use of privileged utility programs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.8.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installation of software on operational systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.8.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Networks security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.8.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Security of network services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.8.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segregation of networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.8.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web filtering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.8.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use of cryptography</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.8.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secure development life cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.8.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application security requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.8.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secure system architecture and engineering principles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.8.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secure coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.8.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Security testing in development and acceptance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.8.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outsourced development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.8.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Separation of development, test and production environments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.8.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.8.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.8.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protection of information systems during audit testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of controls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meaning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of ISMS requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of information security controls</t>
+  </si>
+  <si>
     <t xml:space="preserve">? Unknown</t>
   </si>
   <si>
-    <t xml:space="preserve">A.5.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learning from information security incidents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.5.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collection of evidence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.5.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Information security during disruption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.5.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICT readiness for business continuity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.5.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legal, statutory, regulatory and contractual requirements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.5.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intellectual property rights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.5.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protection of records</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.5.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Privacy and protection of personal identifiable information (PII)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.5.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Independent review of information security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.5.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compliance with policies, rules and standards for information security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.5.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documented operating procedures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">People controls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.6.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screening</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.6.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terms and conditions of employment</t>
+    <t xml:space="preserve">Has not even been checked yet</t>
   </si>
   <si>
     <t xml:space="preserve">Nonexistent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.6.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Information security awareness, education and training</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.6.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disciplinary process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Limited</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.6.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Responsibilities after termination or change of employment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.6.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confidentiality or non-disclosure agreements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.6.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remote working</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.6.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Information security event reporting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physical controls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.7.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physical security perimeters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.7.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physical entry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.7.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Securing offices, rooms and facilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.7.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physical security monitoring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.7.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protecting against physical and environmental threats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.7.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Working in secure areas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.7.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clear desk and clear screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.7.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equipment siting and protection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.7.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Security of assets off-premises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.7.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Storage media</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.7.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supporting utilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.7.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cabling security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.7.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equipment maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.7.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secure disposal or re-use of equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technological controls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.8.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User end point devices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.8.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Privileged access rights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.8.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Information access restriction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.8.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access to source code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.8.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secure authentication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.8.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capacity management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.8.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protection against malware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.8.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Management of technical vulnerabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.8.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Configuration management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.8.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Information deletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.8.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data masking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.8.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data leakage prevention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.8.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Information backup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.8.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redundancy of information processing facilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.8.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.8.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitoring activities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.8.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clock synchronization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.8.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use of privileged utility programs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.8.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Installation of software on operational systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.8.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Networks security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.8.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Security of network services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.8.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segregation of networks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.8.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web filtering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.8.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use of cryptography</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.8.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secure development life cycle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.8.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application security requirements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.8.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secure system architecture and engineering principles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.8.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secure coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.8.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Security testing in development and acceptance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.8.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outsourced development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.8.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Separation of development, test and production environments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.8.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.8.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.8.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protection of information systems during audit testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of controls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meaning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of ISMS requirements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of information security controls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has not even been checked yet</t>
   </si>
   <si>
     <r>
@@ -2162,9 +2153,15 @@
     <t xml:space="preserve">Development has barely started and will require significant work to fulfill the requirements</t>
   </si>
   <si>
+    <t xml:space="preserve">Limited</t>
+  </si>
+  <si>
     <t xml:space="preserve">Progressing nicely but not yet complete</t>
   </si>
   <si>
+    <t xml:space="preserve">Defined</t>
+  </si>
+  <si>
     <t xml:space="preserve">Development is more or less complete although detail is lacking and/or it is not yet implemented, enforced and actively supported by top management</t>
   </si>
   <si>
@@ -2172,6 +2169,9 @@
   </si>
   <si>
     <t xml:space="preserve">The requirement is fully satisfied, is operating fully as expected, is being actively monitored and improved, and there is substantial evidence to prove all that to the auditors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not applicable</t>
   </si>
   <si>
     <t xml:space="preserve">ALL requirements in the main body of ISO/IEC 27001 are mandatory IF your ISMS is to be certified.  Otherwise, managemnent can ignore them.</t>
@@ -4157,6 +4157,56 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.35"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF336600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFD9D9D9"/>
       </font>
       <fill>
@@ -4171,67 +4221,17 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF336600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.35"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4296,57 +4296,57 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF336600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF336600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4391,6 +4391,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-0.35"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF336600"/>
         </patternFill>
       </fill>
@@ -4401,67 +4411,57 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFD9D9D9"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4506,32 +4506,42 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-0.35"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -4567,16 +4577,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF336600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.35"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4617,6 +4617,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -4631,67 +4651,47 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="2" tint="-0.5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF336600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF336600"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4732,6 +4732,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -4742,26 +4762,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -4786,6 +4786,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF336600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -4797,16 +4807,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF336600"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4847,6 +4847,56 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF336600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.35"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFD9D9D9"/>
       </font>
       <fill>
@@ -4862,56 +4912,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF336600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.35"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4962,6 +4962,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFD9D9D9"/>
       </font>
       <fill>
@@ -4986,57 +4996,47 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="2" tint="-0.5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF336600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF336600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5081,77 +5081,77 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.35"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF336600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5196,32 +5196,42 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-0.35"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -5257,16 +5267,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF336600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.35"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5307,6 +5307,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -5321,6 +5341,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -5331,26 +5361,6 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF336600"/>
         </patternFill>
       </fill>
@@ -5362,16 +5372,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5446,6 +5446,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-0.35"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
@@ -5466,6 +5476,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF336600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -5477,26 +5497,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF336600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.35"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5541,6 +5541,36 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF336600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.35"/>
         </patternFill>
       </fill>
@@ -5551,7 +5581,27 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF336600"/>
+          <bgColor theme="2" tint="-0.5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5562,56 +5612,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5656,6 +5656,26 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -5666,26 +5686,6 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor theme="2" tint="-0.5"/>
         </patternFill>
       </fill>
@@ -5706,27 +5706,27 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF336600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF336600"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6785,7 +6785,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.464285714285714</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -6794,7 +6794,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.357142857142857</c:v>
+                  <c:v>0.571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.178571428571429</c:v>
@@ -7232,28 +7232,28 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.139784946236559</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.010752688172043</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.010752688172043</c:v>
+                  <c:v>0.0752688172043011</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.010752688172043</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.032258064516129</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.419354838709677</c:v>
+                  <c:v>0.731182795698925</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.344086021505376</c:v>
+                  <c:v>0.193548387096774</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.032258064516129</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7321,9 +7321,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1465560</xdr:colOff>
+      <xdr:colOff>1465200</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:rowOff>55800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7339,7 +7339,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="218880" y="123840"/>
-          <a:ext cx="1398960" cy="1246680"/>
+          <a:ext cx="1398600" cy="1246320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7365,9 +7365,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>332280</xdr:colOff>
+      <xdr:colOff>331920</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>631440</xdr:rowOff>
+      <xdr:rowOff>631080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7376,7 +7376,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7349400" y="152280"/>
-        <a:ext cx="5797800" cy="5037840"/>
+        <a:ext cx="5797440" cy="5037480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7395,9 +7395,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>303840</xdr:colOff>
+      <xdr:colOff>303480</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:rowOff>10080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7406,7 +7406,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7320960" y="5378040"/>
-        <a:ext cx="5797800" cy="6152040"/>
+        <a:ext cx="5797440" cy="6151680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7423,12 +7423,12 @@
 <c:userShapes xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <cdr:relSizeAnchor>
     <cdr:from>
-      <cdr:x>0.105985347075624</cdr:x>
-      <cdr:y>0.0168631654162201</cdr:y>
+      <cdr:x>0.105991927972679</cdr:x>
+      <cdr:y>0.0168643704444762</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.911585744443065</cdr:x>
-      <cdr:y>0.0999642729546267</cdr:y>
+      <cdr:x>0.91145606954362</cdr:x>
+      <cdr:y>0.0998999571244819</cdr:y>
     </cdr:to>
     <cdr:sp>
       <cdr:nvSpPr>
@@ -7438,7 +7438,7 @@
       <cdr:spPr>
         <a:xfrm>
           <a:off x="614520" y="84960"/>
-          <a:ext cx="4671000" cy="418680"/>
+          <a:ext cx="4669920" cy="418320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7487,12 +7487,12 @@
 <c:userShapes xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <cdr:relSizeAnchor>
     <cdr:from>
-      <cdr:x>0.105985347075624</cdr:x>
-      <cdr:y>0.0169104739613809</cdr:y>
+      <cdr:x>0.105991927972679</cdr:x>
+      <cdr:y>0.0169114635145415</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.911585744443065</cdr:x>
-      <cdr:y>0.100058513750731</cdr:y>
+      <cdr:x>0.91145606954362</cdr:x>
+      <cdr:y>0.100005851717479</cdr:y>
     </cdr:to>
     <cdr:sp>
       <cdr:nvSpPr>
@@ -7502,7 +7502,7 @@
       <cdr:spPr>
         <a:xfrm>
           <a:off x="614520" y="104040"/>
-          <a:ext cx="4671000" cy="511560"/>
+          <a:ext cx="4669920" cy="511200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7729,8 +7729,8 @@
   </sheetPr>
   <dimension ref="B1:B19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7860,7 +7860,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="18.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8325,31 +8325,31 @@
         <v>48</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E22" s="33"/>
     </row>
     <row r="23" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="31" t="s">
-        <v>51</v>
-      </c>
       <c r="D23" s="32" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E23" s="33"/>
     </row>
     <row r="24" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="31" t="s">
-        <v>53</v>
-      </c>
       <c r="D24" s="32" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E24" s="33"/>
     </row>
@@ -8358,7 +8358,7 @@
         <v>6.2</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="34"/>
       <c r="E25" s="27"/>
@@ -8395,10 +8395,10 @@
         <v>6.2</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E26" s="33"/>
       <c r="F26" s="28"/>
@@ -8434,7 +8434,7 @@
         <v>6.3</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="34"/>
       <c r="E27" s="27"/>
@@ -8471,13 +8471,13 @@
         <v>6.3</v>
       </c>
       <c r="C28" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="33" t="s">
         <v>57</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="29" s="37" customFormat="true" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8485,7 +8485,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" s="35"/>
       <c r="E29" s="36"/>
@@ -8522,7 +8522,7 @@
         <v>7.1</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30" s="34"/>
       <c r="E30" s="27"/>
@@ -8559,10 +8559,10 @@
         <v>7.1</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E31" s="33"/>
     </row>
@@ -8571,7 +8571,7 @@
         <v>7.2</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D32" s="34"/>
       <c r="E32" s="27"/>
@@ -8608,10 +8608,10 @@
         <v>7.2</v>
       </c>
       <c r="C33" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="32" t="s">
         <v>63</v>
-      </c>
-      <c r="D33" s="32" t="s">
-        <v>49</v>
       </c>
       <c r="E33" s="33"/>
     </row>
@@ -8660,7 +8660,7 @@
         <v>65</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E35" s="33"/>
     </row>
@@ -8709,7 +8709,7 @@
         <v>67</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E37" s="33"/>
     </row>
@@ -8758,7 +8758,7 @@
         <v>70</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E39" s="33"/>
     </row>
@@ -8770,7 +8770,7 @@
         <v>72</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E40" s="33"/>
     </row>
@@ -8782,7 +8782,7 @@
         <v>74</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E41" s="33"/>
     </row>
@@ -9231,7 +9231,7 @@
         <v>93</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E60" s="42"/>
     </row>
@@ -9263,7 +9263,7 @@
     <row r="65" customFormat="false" ht="38.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="48" t="n">
         <f aca="false">COUNTIF($D$5:$D$60,"Initial")</f>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B65" s="11"/>
       <c r="D65" s="49"/>
@@ -9287,7 +9287,7 @@
     <row r="68" customFormat="false" ht="38.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="48" t="n">
         <f aca="false">COUNTIF($D$5:$D$60,"managed")</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B68" s="11"/>
       <c r="D68" s="49"/>
@@ -9612,7 +9612,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{60B44450-D569-4E5C-A3B7-9CB4F6D26296}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{7F79291E-10EB-408D-9193-78D0805C6E87}">
             <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
@@ -9625,7 +9625,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{8F159DCF-7736-4CA6-9FE0-39CC63493146}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{D8FC982E-5EE0-4075-9E83-52A78A7576AE}">
             <xm:f>Metrics!$B$3</xm:f>
             <x14:dxf>
               <font>
@@ -9638,7 +9638,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{64BF2FED-E5B0-40ED-8BD9-442A68BC4739}">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{29DA3813-BF67-49BF-BD36-0086F78366FC}">
             <xm:f>Metrics!$B$4</xm:f>
             <x14:dxf>
               <font>
@@ -9651,7 +9651,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{A6D469E4-933D-43A1-A93F-1371B1B4AED7}">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{51B77531-C37F-4F9F-83DC-32941B4EC1B2}">
             <xm:f>Metrics!$B$5</xm:f>
             <x14:dxf>
               <font>
@@ -9664,7 +9664,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{E2F080DF-F5CC-4C30-A86C-4B6798787140}">
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{CD494468-104B-48DF-91E4-27EB78528C48}">
             <xm:f>Metrics!$B$6</xm:f>
             <x14:dxf>
               <font>
@@ -9677,7 +9677,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{90748E40-79CC-41FC-B785-59BA79C88029}">
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{9F7E9B12-CBC7-448D-82BF-C7A6FFCAC644}">
             <xm:f>Metrics!$B$7</xm:f>
             <x14:dxf>
               <font>
@@ -9690,7 +9690,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{8AE3C02E-4CD9-4C21-A78D-FDD16F8E9A70}">
+          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{59BC4423-AFFC-4332-AE5C-69D1E0D6D376}">
             <xm:f>Metrics!$B$8</xm:f>
             <x14:dxf>
               <font>
@@ -9703,7 +9703,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{60B86ACD-A4B7-4CA2-9A16-27E046C18B2B}">
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{406A2930-D63F-4E38-BD5C-EEA2FE92E34A}">
             <xm:f>Metrics!$B$9</xm:f>
             <x14:dxf>
               <font>
@@ -9719,7 +9719,7 @@
           <xm:sqref>D60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{8D22EF5F-7895-4A43-AA95-D07BB1382037}">
+          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{8FA9348F-D331-44D9-BFAE-40495375CB27}">
             <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
@@ -9732,7 +9732,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{21D0A9C1-CD9B-4F6F-97AA-DB3B627AA3A0}">
+          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{E07AC915-D979-48AB-9160-A3F0B47F94C0}">
             <xm:f>Metrics!$B$3</xm:f>
             <x14:dxf>
               <font>
@@ -9745,7 +9745,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{77EE8F2E-1698-4AC1-AEC6-A7C00046212F}">
+          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{BE2F20E2-65FA-48C5-9620-B034C6D9FDA4}">
             <xm:f>Metrics!$B$4</xm:f>
             <x14:dxf>
               <font>
@@ -9758,7 +9758,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{299B35F7-A3D7-4DB5-85B8-22618BF41638}">
+          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{3E992576-1D40-4728-9BDA-D0DCA4A254D4}">
             <xm:f>Metrics!$B$5</xm:f>
             <x14:dxf>
               <font>
@@ -9771,7 +9771,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{51F11655-E082-4839-8618-75E737C3CC20}">
+          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{E3705F56-3D21-47A0-AE29-8797CAF12E10}">
             <xm:f>Metrics!$B$6</xm:f>
             <x14:dxf>
               <font>
@@ -9784,7 +9784,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{B0152E9F-84D1-4482-832D-21C1C2B2FC60}">
+          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{2CBCE87E-3E3F-4B2F-9B4C-2AD89DA0517B}">
             <xm:f>Metrics!$B$7</xm:f>
             <x14:dxf>
               <font>
@@ -9797,7 +9797,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{E17E1949-6F13-4D89-A07A-D8B02DC1AD78}">
+          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{6A4C203D-B8BB-43C0-BF53-1AC0402C3A82}">
             <xm:f>Metrics!$B$8</xm:f>
             <x14:dxf>
               <font>
@@ -9810,7 +9810,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{F335C583-43B4-417A-97D8-426E18107E73}">
+          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{DC1F7E45-F2B2-4480-AACF-FC34C698E344}">
             <xm:f>Metrics!$B$9</xm:f>
             <x14:dxf>
               <font>
@@ -9826,7 +9826,7 @@
           <xm:sqref>D58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{88998381-3252-4335-8FC1-9D9A72D0A643}">
+          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{1E2DF0D2-8E80-4BF2-8357-813872A8EEE1}">
             <xm:f>Metrics!$B$3</xm:f>
             <x14:dxf>
               <font>
@@ -9839,7 +9839,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{53B6EE55-6AFF-4D9B-871D-6058E483F495}">
+          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{135E53E9-5F92-4B89-A3AA-F9A298D3EF86}">
             <xm:f>Metrics!$B$4</xm:f>
             <x14:dxf>
               <font>
@@ -9852,7 +9852,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="26" operator="equal" id="{64B8A755-4ED9-41E5-B359-21A5F316BCB6}">
+          <x14:cfRule type="cellIs" priority="26" operator="equal" id="{399FEF3D-7950-4F7B-93F6-4F641E5A38AE}">
             <xm:f>Metrics!$B$5</xm:f>
             <x14:dxf>
               <font>
@@ -9865,7 +9865,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="27" operator="equal" id="{6F5A809F-C2A5-4FF9-A6E8-B1225884D660}">
+          <x14:cfRule type="cellIs" priority="27" operator="equal" id="{B01EAC7F-9C56-483C-B2AE-FB30D4443ABC}">
             <xm:f>Metrics!$B$6</xm:f>
             <x14:dxf>
               <font>
@@ -9878,7 +9878,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="28" operator="equal" id="{C1C9BCB5-C18C-4DC4-9920-A022F33AA211}">
+          <x14:cfRule type="cellIs" priority="28" operator="equal" id="{C58A904A-4E70-424F-8E5D-CA846ED32573}">
             <xm:f>Metrics!$B$7</xm:f>
             <x14:dxf>
               <font>
@@ -9891,7 +9891,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="29" operator="equal" id="{7083F121-93DE-4127-91E0-3C43EE71CC3A}">
+          <x14:cfRule type="cellIs" priority="29" operator="equal" id="{DF30714B-8410-4033-92E8-7B7EC374A948}">
             <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
@@ -9904,7 +9904,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="30" operator="equal" id="{3EA0F023-9995-42E6-A2F9-DE5E9B1DD74D}">
+          <x14:cfRule type="cellIs" priority="30" operator="equal" id="{53D500B3-A4E0-4250-A727-86ED3FCFB7E0}">
             <xm:f>Metrics!$B$8</xm:f>
             <x14:dxf>
               <font>
@@ -9917,7 +9917,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="31" operator="equal" id="{C19BB029-5FDC-4F5B-B537-E487C9AA856E}">
+          <x14:cfRule type="cellIs" priority="31" operator="equal" id="{6AABC56F-F320-4E80-B114-82F95B5B5C6E}">
             <xm:f>Metrics!$B$9</xm:f>
             <x14:dxf>
               <font>
@@ -9933,7 +9933,7 @@
           <xm:sqref>D55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="35" operator="equal" id="{8BF17C39-3428-4FEB-9D74-EEAF5410B048}">
+          <x14:cfRule type="cellIs" priority="35" operator="equal" id="{869DB0BD-3A7F-4CC5-AF4C-DA3E645F4257}">
             <xm:f>Metrics!$B$9</xm:f>
             <x14:dxf>
               <font>
@@ -9946,7 +9946,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="36" operator="equal" id="{EBA04F93-51E5-4A90-B197-6C1648301DFD}">
+          <x14:cfRule type="cellIs" priority="36" operator="equal" id="{1F639BB1-E2AC-4F28-805A-EA46B054943B}">
             <xm:f>Metrics!$B$3</xm:f>
             <x14:dxf>
               <font>
@@ -9959,7 +9959,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{25D933ED-E87D-4424-9020-91A04951B6C1}">
+          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{3C4D3360-40C9-4D5D-9571-714060CCBF57}">
             <xm:f>Metrics!$B$4</xm:f>
             <x14:dxf>
               <font>
@@ -9972,7 +9972,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="38" operator="equal" id="{7177F7CD-7C10-4318-AF5A-FD8810AAD9F1}">
+          <x14:cfRule type="cellIs" priority="38" operator="equal" id="{56461888-9EE3-4711-9FEC-3337902CABFB}">
             <xm:f>Metrics!$B$5</xm:f>
             <x14:dxf>
               <font>
@@ -9985,7 +9985,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="39" operator="equal" id="{54443D95-9D85-416F-B1DD-4AF414E42952}">
+          <x14:cfRule type="cellIs" priority="39" operator="equal" id="{C82A8B73-F829-477C-B887-904577183598}">
             <xm:f>Metrics!$B$6</xm:f>
             <x14:dxf>
               <font>
@@ -9998,7 +9998,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="40" operator="equal" id="{63C749F0-E849-492B-BFFD-6B4D4A871C6B}">
+          <x14:cfRule type="cellIs" priority="40" operator="equal" id="{9770CBDC-D960-4512-AA55-12ABC01B366D}">
             <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
@@ -10011,7 +10011,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="41" operator="equal" id="{F2A8456B-AB3D-46EC-9C40-D7988870C14B}">
+          <x14:cfRule type="cellIs" priority="41" operator="equal" id="{A53840C3-5037-46A7-8A48-38C83BC0E44B}">
             <xm:f>Metrics!$B$7</xm:f>
             <x14:dxf>
               <font>
@@ -10024,7 +10024,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="42" operator="equal" id="{D74AD8FD-5F6D-4454-A35A-786FBA384AC9}">
+          <x14:cfRule type="cellIs" priority="42" operator="equal" id="{A62BB087-82DB-4347-8131-906072E2D5E1}">
             <xm:f>Metrics!$B$8</xm:f>
             <x14:dxf>
               <font>
@@ -10040,7 +10040,7 @@
           <xm:sqref>D53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="46" operator="equal" id="{FB7ADAD4-3A49-4100-B225-396EF88E1D52}">
+          <x14:cfRule type="cellIs" priority="46" operator="equal" id="{954CB936-FC9A-45E0-97DF-C3D6A66BC217}">
             <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
@@ -10053,7 +10053,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="47" operator="equal" id="{97D12563-1119-46CF-B4F5-DC3C2C70712A}">
+          <x14:cfRule type="cellIs" priority="47" operator="equal" id="{003875BA-6B6C-4210-989B-57C7A1E363C7}">
             <xm:f>Metrics!$B$3</xm:f>
             <x14:dxf>
               <font>
@@ -10066,7 +10066,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="48" operator="equal" id="{B2D915E0-E900-41FD-874D-DB7B87FB2F25}">
+          <x14:cfRule type="cellIs" priority="48" operator="equal" id="{738490C4-9E38-4FCB-B9F2-6994AE8CE880}">
             <xm:f>Metrics!$B$4</xm:f>
             <x14:dxf>
               <font>
@@ -10079,7 +10079,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="49" operator="equal" id="{EBAB904F-D347-46D0-875D-D12A21F3A434}">
+          <x14:cfRule type="cellIs" priority="49" operator="equal" id="{F3A7CF3A-519F-4E50-A168-95C0945E9B7A}">
             <xm:f>Metrics!$B$5</xm:f>
             <x14:dxf>
               <font>
@@ -10092,7 +10092,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="50" operator="equal" id="{BEB9C797-FD3E-41B5-B264-B0206F1010F9}">
+          <x14:cfRule type="cellIs" priority="50" operator="equal" id="{51A31649-CAE0-42CD-8B76-8655F360B930}">
             <xm:f>Metrics!$B$6</xm:f>
             <x14:dxf>
               <font>
@@ -10105,7 +10105,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="51" operator="equal" id="{D9E2F5B8-16E6-4855-BD7D-BFA0C7A571FA}">
+          <x14:cfRule type="cellIs" priority="51" operator="equal" id="{2BD28934-134C-40FC-B53F-4B82606552C0}">
             <xm:f>Metrics!$B$7</xm:f>
             <x14:dxf>
               <font>
@@ -10118,7 +10118,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="52" operator="equal" id="{C179776B-D2A3-423C-9DE1-4091C6561FA4}">
+          <x14:cfRule type="cellIs" priority="52" operator="equal" id="{F43F3083-9E61-4A70-BAF8-4A2093805383}">
             <xm:f>Metrics!$B$8</xm:f>
             <x14:dxf>
               <font>
@@ -10131,7 +10131,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="53" operator="equal" id="{5D8731B4-305A-4CA6-95BD-F5EACDDCE470}">
+          <x14:cfRule type="cellIs" priority="53" operator="equal" id="{84F21CF0-F478-4738-A3B7-2A9026C39170}">
             <xm:f>Metrics!$B$9</xm:f>
             <x14:dxf>
               <font>
@@ -10147,7 +10147,7 @@
           <xm:sqref>D51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="57" operator="equal" id="{846CE19C-483B-4819-B61A-40DAE6F6C168}">
+          <x14:cfRule type="cellIs" priority="57" operator="equal" id="{463C8FFF-8A3D-49BD-A546-76DD19CE9B4E}">
             <xm:f>Metrics!$B$3</xm:f>
             <x14:dxf>
               <font>
@@ -10160,7 +10160,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="58" operator="equal" id="{54252CA5-E660-4A7C-BC9C-964CD0F1CB6F}">
+          <x14:cfRule type="cellIs" priority="58" operator="equal" id="{ED16E5B6-7FAA-4CAE-92CB-58DBDCAFB21A}">
             <xm:f>Metrics!$B$4</xm:f>
             <x14:dxf>
               <font>
@@ -10173,7 +10173,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="59" operator="equal" id="{FF9F42DD-D8EE-47E6-8383-63735084F4D2}">
+          <x14:cfRule type="cellIs" priority="59" operator="equal" id="{2131D345-5F76-47B8-A78B-001EB2B4EE65}">
             <xm:f>Metrics!$B$5</xm:f>
             <x14:dxf>
               <font>
@@ -10186,7 +10186,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="60" operator="equal" id="{2CF178A6-5C5E-4115-96C4-2CC53C115694}">
+          <x14:cfRule type="cellIs" priority="60" operator="equal" id="{3480B3AA-9F4D-424C-B66B-77C61D20521B}">
             <xm:f>Metrics!$B$6</xm:f>
             <x14:dxf>
               <font>
@@ -10199,7 +10199,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="61" operator="equal" id="{967C57DB-2255-45FF-92DA-22FED640BC20}">
+          <x14:cfRule type="cellIs" priority="61" operator="equal" id="{B764C78B-A86D-461D-AB91-7A97EA668626}">
             <xm:f>Metrics!$B$7</xm:f>
             <x14:dxf>
               <font>
@@ -10212,7 +10212,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="62" operator="equal" id="{69DF8DE2-B0B6-4FE2-A1D1-CF8040535E26}">
+          <x14:cfRule type="cellIs" priority="62" operator="equal" id="{50B3639C-45E5-4F99-B946-8FAEBEB7E5C5}">
             <xm:f>Metrics!$B$8</xm:f>
             <x14:dxf>
               <font>
@@ -10225,7 +10225,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="63" operator="equal" id="{D3C66A3A-9987-487E-8680-B200D2CB292B}">
+          <x14:cfRule type="cellIs" priority="63" operator="equal" id="{C69F3370-EAAA-49FA-BD51-1282322016C4}">
             <xm:f>Metrics!$B$9</xm:f>
             <x14:dxf>
               <font>
@@ -10238,7 +10238,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="64" operator="equal" id="{51261A12-124A-43C3-9DD1-51D2E69D7F85}">
+          <x14:cfRule type="cellIs" priority="64" operator="equal" id="{C14D87D8-AD39-41D3-8950-7516E3528EFF}">
             <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
@@ -10254,7 +10254,7 @@
           <xm:sqref>D48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="68" operator="equal" id="{85E676CD-E374-4E68-A521-F9304D3A494E}">
+          <x14:cfRule type="cellIs" priority="68" operator="equal" id="{ADB22BF4-5B55-49B2-A92E-38F6F4F6E089}">
             <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
@@ -10267,7 +10267,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="69" operator="equal" id="{1EE0DAA8-B740-4F60-A195-66A39D154830}">
+          <x14:cfRule type="cellIs" priority="69" operator="equal" id="{6BBB1044-B8AE-4341-8550-8D1329456CF0}">
             <xm:f>Metrics!$B$3</xm:f>
             <x14:dxf>
               <font>
@@ -10280,7 +10280,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="70" operator="equal" id="{B0AF1B7C-EDB7-4C54-AAF7-251F208649CF}">
+          <x14:cfRule type="cellIs" priority="70" operator="equal" id="{C63D464C-8AE0-4F5B-A194-D65F7DA2BA20}">
             <xm:f>Metrics!$B$4</xm:f>
             <x14:dxf>
               <font>
@@ -10293,7 +10293,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="71" operator="equal" id="{DA9DB74B-BC2E-4AB5-81C5-6F215F40D7CC}">
+          <x14:cfRule type="cellIs" priority="71" operator="equal" id="{F2A7E54C-3887-4CB4-8812-6DF752E0EEE3}">
             <xm:f>Metrics!$B$5</xm:f>
             <x14:dxf>
               <font>
@@ -10306,7 +10306,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="72" operator="equal" id="{467FD698-D6E5-43C3-A457-47AA8028F53F}">
+          <x14:cfRule type="cellIs" priority="72" operator="equal" id="{559322A7-5B6D-44F5-9755-40B71567D8C7}">
             <xm:f>Metrics!$B$6</xm:f>
             <x14:dxf>
               <font>
@@ -10319,7 +10319,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="73" operator="equal" id="{2D9660CB-7033-4480-9AB2-67C3D3DC8BD8}">
+          <x14:cfRule type="cellIs" priority="73" operator="equal" id="{00CAEABD-6A68-4DB6-B8D7-E5E7FD1C1E8E}">
             <xm:f>Metrics!$B$7</xm:f>
             <x14:dxf>
               <font>
@@ -10332,7 +10332,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="74" operator="equal" id="{4722D928-32C2-4A3E-A928-844385C02C35}">
+          <x14:cfRule type="cellIs" priority="74" operator="equal" id="{38121B3A-DA57-4EFE-B4C5-00DEA2CB68C1}">
             <xm:f>Metrics!$B$8</xm:f>
             <x14:dxf>
               <font>
@@ -10345,7 +10345,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="75" operator="equal" id="{1172AF32-BD00-42C0-B4CE-4DE049D4458D}">
+          <x14:cfRule type="cellIs" priority="75" operator="equal" id="{2750144A-51EC-4588-A8F5-D0D38DDAF578}">
             <xm:f>Metrics!$B$9</xm:f>
             <x14:dxf>
               <font>
@@ -10361,7 +10361,7 @@
           <xm:sqref>D46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="79" operator="equal" id="{7780F37A-1F97-4AC0-841C-25282D404A2D}">
+          <x14:cfRule type="cellIs" priority="79" operator="equal" id="{5EFD6DC8-1EDD-4494-91B5-B3ED30235636}">
             <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
@@ -10374,7 +10374,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="80" operator="equal" id="{B6F5C652-DD6E-45C7-9097-7D2837E62074}">
+          <x14:cfRule type="cellIs" priority="80" operator="equal" id="{D6244B1C-E080-4678-90A7-2718F732786D}">
             <xm:f>Metrics!$B$3</xm:f>
             <x14:dxf>
               <font>
@@ -10387,7 +10387,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="81" operator="equal" id="{50BC9044-EBEF-4B7B-957D-40298C858AAA}">
+          <x14:cfRule type="cellIs" priority="81" operator="equal" id="{37BF11BF-8F91-4D2D-9467-9A14142D2F3B}">
             <xm:f>Metrics!$B$4</xm:f>
             <x14:dxf>
               <font>
@@ -10400,7 +10400,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="82" operator="equal" id="{CF6B3E5A-3658-4F4D-AF79-A6BA391930A2}">
+          <x14:cfRule type="cellIs" priority="82" operator="equal" id="{913ACCA4-4CC2-47DB-A352-BF846F48BFE4}">
             <xm:f>Metrics!$B$5</xm:f>
             <x14:dxf>
               <font>
@@ -10413,7 +10413,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="83" operator="equal" id="{4066C049-1013-46E0-B426-14EC895844BE}">
+          <x14:cfRule type="cellIs" priority="83" operator="equal" id="{15836610-F483-4588-ADF7-E8AB444993A1}">
             <xm:f>Metrics!$B$6</xm:f>
             <x14:dxf>
               <font>
@@ -10426,7 +10426,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="84" operator="equal" id="{B4139CD1-1F57-4D2F-8426-9FF5F0DD4662}">
+          <x14:cfRule type="cellIs" priority="84" operator="equal" id="{3A687366-4C49-4760-A690-9B1986E6AEAB}">
             <xm:f>Metrics!$B$7</xm:f>
             <x14:dxf>
               <font>
@@ -10439,7 +10439,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="85" operator="equal" id="{83C0BF64-C526-449D-A931-D366231B30E9}">
+          <x14:cfRule type="cellIs" priority="85" operator="equal" id="{4C9DD1DD-7057-4880-BB63-E04287E1F336}">
             <xm:f>Metrics!$B$8</xm:f>
             <x14:dxf>
               <font>
@@ -10452,7 +10452,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="86" operator="equal" id="{41F7F17E-B040-439A-8988-51D0DFCA10C4}">
+          <x14:cfRule type="cellIs" priority="86" operator="equal" id="{4291F58B-BA4A-4042-AC42-81F176C0B493}">
             <xm:f>Metrics!$B$9</xm:f>
             <x14:dxf>
               <font>
@@ -10468,7 +10468,7 @@
           <xm:sqref>D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="90" operator="equal" id="{18279A55-9012-40D7-804B-265919FC9AF7}">
+          <x14:cfRule type="cellIs" priority="90" operator="equal" id="{603E227B-E089-45D0-BCEC-F0FF9562B579}">
             <xm:f>Metrics!$B$3</xm:f>
             <x14:dxf>
               <font>
@@ -10481,7 +10481,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="91" operator="equal" id="{1665B19E-DA45-4A1B-A02B-B00054D03518}">
+          <x14:cfRule type="cellIs" priority="91" operator="equal" id="{94BAB8B4-7C73-42FC-B71F-C1DDDA2B349C}">
             <xm:f>Metrics!$B$4</xm:f>
             <x14:dxf>
               <font>
@@ -10494,7 +10494,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="92" operator="equal" id="{29E848A7-57A4-4A3D-9ACD-1F70762DCAE3}">
+          <x14:cfRule type="cellIs" priority="92" operator="equal" id="{6ACA54EA-9059-4D9C-A6FC-DA627D377EAE}">
             <xm:f>Metrics!$B$5</xm:f>
             <x14:dxf>
               <font>
@@ -10507,7 +10507,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="93" operator="equal" id="{A4157A45-953E-4A2A-8CD4-FEA470F1205B}">
+          <x14:cfRule type="cellIs" priority="93" operator="equal" id="{90A57E59-F9B6-4313-8093-4CDEAD6E8253}">
             <xm:f>Metrics!$B$6</xm:f>
             <x14:dxf>
               <font>
@@ -10520,7 +10520,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="94" operator="equal" id="{655FBEE0-8A10-4FAD-8CFA-7D317AB9C66E}">
+          <x14:cfRule type="cellIs" priority="94" operator="equal" id="{EC99778C-8120-489A-833A-1048A65B3B17}">
             <xm:f>Metrics!$B$7</xm:f>
             <x14:dxf>
               <font>
@@ -10533,7 +10533,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="95" operator="equal" id="{26A4A16A-4E36-4AB6-8A14-CCE01EBABBA0}">
+          <x14:cfRule type="cellIs" priority="95" operator="equal" id="{8E6600DB-3653-4A63-AAD4-339A99E7B8B6}">
             <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
@@ -10546,7 +10546,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="96" operator="equal" id="{F2892096-D847-4C77-8CE1-68A120BCFDD0}">
+          <x14:cfRule type="cellIs" priority="96" operator="equal" id="{D988FEBF-EFEE-4CB0-9C98-BDF580E89014}">
             <xm:f>Metrics!$B$8</xm:f>
             <x14:dxf>
               <font>
@@ -10559,7 +10559,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="97" operator="equal" id="{207F30A5-C8B0-4BF8-A4FD-A8E7D0391060}">
+          <x14:cfRule type="cellIs" priority="97" operator="equal" id="{9F99D0F3-284F-4F5E-BFF6-86603EF13836}">
             <xm:f>Metrics!$B$9</xm:f>
             <x14:dxf>
               <font>
@@ -10575,10 +10575,75 @@
           <xm:sqref>D39:D41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="101" operator="equal" id="{69AAD82E-F5BA-48A5-BD44-9EE13E606032}">
+          <x14:cfRule type="cellIs" priority="101" operator="equal" id="{262978B0-26A9-4399-848F-13DED93659E8}">
             <xm:f>Metrics!$B$9</xm:f>
             <x14:dxf>
               <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="102" operator="equal" id="{32498498-CF23-45C0-AD90-793D1477896D}">
+            <xm:f>Metrics!$B$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.35"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="103" operator="equal" id="{9470FC6A-44A7-45D0-BB28-442E61D2D09E}">
+            <xm:f>Metrics!$B$4</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF336600"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="104" operator="equal" id="{1388368F-8711-42CC-8F16-9BC1436A803C}">
+            <xm:f>Metrics!$B$5</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="105" operator="equal" id="{4047F7E6-7FC7-4F75-AFFD-3839415CB9F4}">
+            <xm:f>Metrics!$B$6</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="106" operator="equal" id="{92E4EF4F-5819-4A3C-9D5F-2C9737993AAD}">
+            <xm:f>Metrics!$B$10</xm:f>
+            <x14:dxf>
+              <font>
                 <color rgb="FFD9D9D9"/>
               </font>
               <fill>
@@ -10588,8 +10653,21 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="102" operator="equal" id="{2BC1EDC9-4EDC-4AF7-B3F8-8F3AB3456B8F}">
-            <xm:f>Metrics!$B$3</xm:f>
+          <x14:cfRule type="cellIs" priority="107" operator="equal" id="{EE71A7EF-EA1D-4DFA-A24F-BBA27564D5A0}">
+            <xm:f>Metrics!$B$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC00000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="108" operator="equal" id="{727DF6DD-A78E-4E69-A1ED-E617E421A9A3}">
+            <xm:f>Metrics!$B$8</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -10597,84 +10675,6 @@
               <fill>
                 <patternFill>
                   <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="103" operator="equal" id="{B8EF5877-8365-4ADB-AF9F-9914A943D74A}">
-            <xm:f>Metrics!$B$4</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="104" operator="equal" id="{E91CCE57-952B-4B2A-8E35-CFE673DD1DCC}">
-            <xm:f>Metrics!$B$5</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="2" tint="-0.5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="105" operator="equal" id="{F75534ED-F9CE-47AA-ADB6-5B1ED5E420BB}">
-            <xm:f>Metrics!$B$6</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="106" operator="equal" id="{3BFF971F-2620-463D-96D6-403017F5C3C1}">
-            <xm:f>Metrics!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="107" operator="equal" id="{A0DF5520-56EB-4BBE-A56E-BBF317321E20}">
-            <xm:f>Metrics!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF336600"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="108" operator="equal" id="{3C395BA0-52C6-44AF-A229-77F291C6F525}">
-            <xm:f>Metrics!$B$8</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.35"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -10682,7 +10682,7 @@
           <xm:sqref>D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="112" operator="equal" id="{A6379C50-717A-49CA-BBEF-B54B766FD0D4}">
+          <x14:cfRule type="cellIs" priority="112" operator="equal" id="{98B52B30-D37F-487F-BAA4-B7605685F7D9}">
             <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
@@ -10695,7 +10695,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="113" operator="equal" id="{879EDEC2-A920-49E2-91FD-4DE8B0C39753}">
+          <x14:cfRule type="cellIs" priority="113" operator="equal" id="{F3D0454B-60A2-4CD9-B722-C47624FA5C2D}">
             <xm:f>Metrics!$B$3</xm:f>
             <x14:dxf>
               <font>
@@ -10708,7 +10708,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="114" operator="equal" id="{11BDE846-4770-45C3-A574-6B76DBEBA22A}">
+          <x14:cfRule type="cellIs" priority="114" operator="equal" id="{7380DEC0-EB4B-40F0-B69D-81CA88A82270}">
             <xm:f>Metrics!$B$4</xm:f>
             <x14:dxf>
               <font>
@@ -10716,72 +10716,72 @@
               </font>
               <fill>
                 <patternFill>
+                  <bgColor rgb="FFC00000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="115" operator="equal" id="{55FF65D1-F397-493A-BBD2-46125BD3E395}">
+            <xm:f>Metrics!$B$5</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="116" operator="equal" id="{16A781AF-57A3-447B-A932-254B23441733}">
+            <xm:f>Metrics!$B$6</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="117" operator="equal" id="{B8D729EC-7BA2-4FAB-AA8D-1A52CF9DE25E}">
+            <xm:f>Metrics!$B$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="118" operator="equal" id="{6FF051AE-87A7-4D42-A559-A4DFDD15F047}">
+            <xm:f>Metrics!$B$8</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF336600"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="119" operator="equal" id="{3CA8F8F9-9D28-4C2F-A036-2C305089CB6B}">
+            <xm:f>Metrics!$B$9</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
                   <bgColor theme="0" tint="-0.35"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="115" operator="equal" id="{304329D4-759D-41FD-AA61-DC64153F2F36}">
-            <xm:f>Metrics!$B$5</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="116" operator="equal" id="{CFCD1EE4-8DB7-4000-903C-93A3DE203D8D}">
-            <xm:f>Metrics!$B$6</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="2" tint="-0.5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="117" operator="equal" id="{8C636C23-899E-49E4-A7FF-1AF6E53748DE}">
-            <xm:f>Metrics!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF336600"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="118" operator="equal" id="{3515467C-9E7D-4E73-9B74-1127615E4CFA}">
-            <xm:f>Metrics!$B$8</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="119" operator="equal" id="{65F21688-563D-4D40-A2ED-6415BDC3D729}">
-            <xm:f>Metrics!$B$9</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -10789,7 +10789,7 @@
           <xm:sqref>D35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="123" operator="equal" id="{4743CDAF-F7C0-499D-9E62-3F27BFDC4D2A}">
+          <x14:cfRule type="cellIs" priority="123" operator="equal" id="{DE4036DE-7098-494D-8956-E82CAD6E589A}">
             <xm:f>Metrics!$B$4</xm:f>
             <x14:dxf>
               <font>
@@ -10797,13 +10797,78 @@
               </font>
               <fill>
                 <patternFill>
+                  <bgColor theme="0" tint="-0.35"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="124" operator="equal" id="{29D4E119-8C32-4D50-9F6D-2C29BA8FD7C1}">
+            <xm:f>Metrics!$B$5</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
                   <bgColor rgb="FF336600"/>
                 </patternFill>
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="124" operator="equal" id="{BD9580AF-5D38-44F1-95B2-E6474E61D825}">
-            <xm:f>Metrics!$B$5</xm:f>
+          <x14:cfRule type="cellIs" priority="125" operator="equal" id="{D15BEC5D-C633-415F-819F-969F40BD6AAB}">
+            <xm:f>Metrics!$B$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="126" operator="equal" id="{FEE1A0CC-E15C-4A5E-AA6A-F6115ABE78D2}">
+            <xm:f>Metrics!$B$9</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="127" operator="equal" id="{C3B559B2-BE00-41AE-9320-35A6A42D19F7}">
+            <xm:f>Metrics!$B$8</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="128" operator="equal" id="{19D7196E-F2CB-4CF1-ADB7-8B7F87C7CBD1}">
+            <xm:f>Metrics!$B$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC00000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="129" operator="equal" id="{156873C4-9563-40FC-8AC8-3CBA9F6ADEB2}">
+            <xm:f>Metrics!$B$6</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -10815,47 +10880,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="125" operator="equal" id="{13CAF323-F8CA-46A1-9BA7-6C5F78B152DF}">
-            <xm:f>Metrics!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="126" operator="equal" id="{2089E98F-1EF5-4213-8DC0-18BE4881E2C7}">
-            <xm:f>Metrics!$B$9</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.35"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="127" operator="equal" id="{DA94AF46-DB3E-4CAF-8063-133722BA1EAC}">
-            <xm:f>Metrics!$B$8</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="2" tint="-0.5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="128" operator="equal" id="{AF6BDC99-C03A-47AE-B5C5-ADE4AC106EC8}">
-            <xm:f>Metrics!$B$7</xm:f>
+          <x14:cfRule type="cellIs" priority="130" operator="equal" id="{7D68C5C9-C027-4951-AD5E-F5588364A371}">
+            <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFD9D9D9"/>
@@ -10863,32 +10889,6 @@
               <fill>
                 <patternFill>
                   <bgColor theme="0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="129" operator="equal" id="{1ECA23B0-773E-4F5A-8110-DE37909A3C4A}">
-            <xm:f>Metrics!$B$6</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="130" operator="equal" id="{8E6CD23A-9DEC-42D0-A7EA-624369324DC4}">
-            <xm:f>Metrics!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -10896,7 +10896,7 @@
           <xm:sqref>D33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="134" operator="equal" id="{A127608E-2C4A-4BA6-9A55-462FCD503D20}">
+          <x14:cfRule type="cellIs" priority="134" operator="equal" id="{90D16AAD-C59E-4C30-9A5C-F9B65072352D}">
             <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
@@ -10904,39 +10904,52 @@
               </font>
               <fill>
                 <patternFill>
+                  <bgColor theme="0" tint="-0.35"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="135" operator="equal" id="{DA26FB60-F31E-409B-893A-46355E918FF9}">
+            <xm:f>Metrics!$B$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFD9D9D9"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="136" operator="equal" id="{6AE3D8D3-CB3B-4E1A-8240-DBD6F9E7FE40}">
+            <xm:f>Metrics!$B$4</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="137" operator="equal" id="{15D2DB19-3EC6-41BF-8FCC-B6499FDA59D0}">
+            <xm:f>Metrics!$B$5</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
                   <bgColor rgb="FFC00000"/>
                 </patternFill>
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="135" operator="equal" id="{D7E9C8FF-7066-49A7-A342-E359782E1DE9}">
-            <xm:f>Metrics!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFD9D9D9"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="136" operator="equal" id="{F12E70B8-F090-4F1A-BB88-98B3917080AA}">
-            <xm:f>Metrics!$B$4</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="137" operator="equal" id="{2B101D2D-A295-4D50-B1CE-4197B63D37E8}">
-            <xm:f>Metrics!$B$5</xm:f>
+          <x14:cfRule type="cellIs" priority="138" operator="equal" id="{EBF04590-9420-45D6-8196-B8D127819B68}">
+            <xm:f>Metrics!$B$6</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -10948,8 +10961,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="138" operator="equal" id="{389E808C-2680-49ED-99B2-F5798A8B5461}">
-            <xm:f>Metrics!$B$6</xm:f>
+          <x14:cfRule type="cellIs" priority="139" operator="equal" id="{52E23192-54BA-44A6-B961-ABF3B1D476EE}">
+            <xm:f>Metrics!$B$7</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -10961,8 +10974,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="139" operator="equal" id="{DD1B93B0-6EC3-4D87-B8E0-261A426F10E7}">
-            <xm:f>Metrics!$B$7</xm:f>
+          <x14:cfRule type="cellIs" priority="140" operator="equal" id="{31E74743-EC95-428E-8077-4BC5649735D2}">
+            <xm:f>Metrics!$B$8</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -10974,8 +10987,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="140" operator="equal" id="{384A6836-149B-494D-88C3-C0A236B07D55}">
-            <xm:f>Metrics!$B$8</xm:f>
+          <x14:cfRule type="cellIs" priority="141" operator="equal" id="{6E6021EA-361B-4014-9F86-1B25D56C3F27}">
+            <xm:f>Metrics!$B$9</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -10983,19 +10996,6 @@
               <fill>
                 <patternFill>
                   <bgColor rgb="FF336600"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="141" operator="equal" id="{C128A183-89CF-4EA0-AC84-ECD117F6C9D0}">
-            <xm:f>Metrics!$B$9</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.35"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -11003,10 +11003,36 @@
           <xm:sqref>D31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="145" operator="equal" id="{AE914264-D157-4A43-BC38-7394346E6BB2}">
+          <x14:cfRule type="cellIs" priority="145" operator="equal" id="{13801EA2-20FC-4977-A278-B479A399687F}">
             <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
+                <color rgb="FFD9D9D9"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="146" operator="equal" id="{6048A2D3-EEC9-45C4-A5D7-7298356527F0}">
+            <xm:f>Metrics!$B$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="147" operator="equal" id="{70E2AADF-9873-4031-A8A5-87D6AD486381}">
+            <xm:f>Metrics!$B$4</xm:f>
+            <x14:dxf>
+              <font>
                 <color rgb="FFFFFFFF"/>
               </font>
               <fill>
@@ -11016,8 +11042,60 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="146" operator="equal" id="{7A6E486C-9046-47C0-8E64-F91BC0EF66A2}">
-            <xm:f>Metrics!$B$3</xm:f>
+          <x14:cfRule type="cellIs" priority="148" operator="equal" id="{8A18C1AD-C453-487B-BB7B-1FF45052B117}">
+            <xm:f>Metrics!$B$5</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="149" operator="equal" id="{3DF6D97D-92FB-4EA6-80FA-272FEFCE489D}">
+            <xm:f>Metrics!$B$6</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="150" operator="equal" id="{A3C98059-73D9-47AC-B384-4C9980A28927}">
+            <xm:f>Metrics!$B$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="151" operator="equal" id="{00EA2D61-72BF-4990-90BD-79C498D356CD}">
+            <xm:f>Metrics!$B$8</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF336600"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="152" operator="equal" id="{40B9D817-D31F-4C86-9235-A68D4BA78D27}">
+            <xm:f>Metrics!$B$9</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -11025,84 +11103,6 @@
               <fill>
                 <patternFill>
                   <bgColor theme="0" tint="-0.35"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="147" operator="equal" id="{C03A8099-E631-471A-8093-DFA45EB89C88}">
-            <xm:f>Metrics!$B$4</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFD9D9D9"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="148" operator="equal" id="{5BEFD0F3-8760-476C-85B9-5E2520686DC3}">
-            <xm:f>Metrics!$B$5</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="149" operator="equal" id="{7BADEEDD-E665-4744-B8F7-AD443A10A941}">
-            <xm:f>Metrics!$B$6</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="2" tint="-0.5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="150" operator="equal" id="{F2647923-E72B-46C3-996C-7A9530622984}">
-            <xm:f>Metrics!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="151" operator="equal" id="{13263D45-9754-456B-8C93-4E2183761A1A}">
-            <xm:f>Metrics!$B$8</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="152" operator="equal" id="{8D207CA0-2777-4D8E-B28E-40E03141C9B7}">
-            <xm:f>Metrics!$B$9</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF336600"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -11110,10 +11110,36 @@
           <xm:sqref>D28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="156" operator="equal" id="{75E88A9B-AC80-4B27-A2AB-2D102C9652A0}">
+          <x14:cfRule type="cellIs" priority="156" operator="equal" id="{80752D63-33C8-48B0-8749-8E5CB71ECAF9}">
             <xm:f>Metrics!$B$3</xm:f>
             <x14:dxf>
               <font>
+                <color rgb="FFD9D9D9"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="157" operator="equal" id="{7980FA3D-8777-4A70-8C20-EC41F1BC202C}">
+            <xm:f>Metrics!$B$4</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="158" operator="equal" id="{F4821FDA-1E28-4BEA-9A65-9A268089C694}">
+            <xm:f>Metrics!$B$5</xm:f>
+            <x14:dxf>
+              <font>
                 <color rgb="FFFFFFFF"/>
               </font>
               <fill>
@@ -11123,33 +11149,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="157" operator="equal" id="{2D6C9B5C-2DC2-4287-884C-BF8C8E36453D}">
-            <xm:f>Metrics!$B$4</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFD9D9D9"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="158" operator="equal" id="{4311DF94-7B40-4D70-ADE5-135C1D7FC2EB}">
-            <xm:f>Metrics!$B$5</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="159" operator="equal" id="{B2BBF06C-9490-4440-928B-70F9E2DFB9E6}">
+          <x14:cfRule type="cellIs" priority="159" operator="equal" id="{4050B619-834D-4194-8882-77E0A48DA7AA}">
             <xm:f>Metrics!$B$6</xm:f>
             <x14:dxf>
               <font>
@@ -11162,7 +11162,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="160" operator="equal" id="{3212909A-CC66-4528-852B-61FF357E10F8}">
+          <x14:cfRule type="cellIs" priority="160" operator="equal" id="{15A1C297-4547-49E9-99C8-2FDC40E26050}">
             <xm:f>Metrics!$B$7</xm:f>
             <x14:dxf>
               <font>
@@ -11175,7 +11175,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="161" operator="equal" id="{8E929EB0-4DC1-4254-BA7B-9C3EA750B09A}">
+          <x14:cfRule type="cellIs" priority="161" operator="equal" id="{179E399E-D03C-458B-93E8-FD70C4B250B2}">
             <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
@@ -11183,13 +11183,26 @@
               </font>
               <fill>
                 <patternFill>
+                  <bgColor rgb="FF336600"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="162" operator="equal" id="{68782BD8-8D73-4B6A-A78D-1426FA8A77B0}">
+            <xm:f>Metrics!$B$8</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
                   <bgColor rgb="FFFFC000"/>
                 </patternFill>
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="162" operator="equal" id="{1442E172-A681-4B55-90F6-D3222C8A0070}">
-            <xm:f>Metrics!$B$8</xm:f>
+          <x14:cfRule type="cellIs" priority="163" operator="equal" id="{CC20E143-40E5-48A9-989E-359FAFECDAAD}">
+            <xm:f>Metrics!$B$9</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -11197,19 +11210,6 @@
               <fill>
                 <patternFill>
                   <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="163" operator="equal" id="{7E225044-1755-4CAF-BBD9-81F1339E438F}">
-            <xm:f>Metrics!$B$9</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF336600"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -11217,10 +11217,75 @@
           <xm:sqref>D26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="167" operator="equal" id="{14AF73B0-D5F1-468B-B2F1-AF4DA97BA887}">
+          <x14:cfRule type="cellIs" priority="167" operator="equal" id="{F76EC037-F822-40E3-AB90-A5D6CD5DD020}">
             <xm:f>Metrics!$B$9</xm:f>
             <x14:dxf>
               <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF336600"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="168" operator="equal" id="{3C319017-6076-4D80-9620-1F29F96FF880}">
+            <xm:f>Metrics!$B$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="169" operator="equal" id="{3DE71831-F13B-4CB6-89A0-6613F0D7E3C0}">
+            <xm:f>Metrics!$B$4</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC00000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="170" operator="equal" id="{B2404C2A-5BE9-44FC-9ABE-6C3DCC34DBEF}">
+            <xm:f>Metrics!$B$5</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.35"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="171" operator="equal" id="{1DE46966-8422-404D-8066-77625FC7B624}">
+            <xm:f>Metrics!$B$6</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="172" operator="equal" id="{6569CA46-CB9F-4FA4-8312-A646AD2C7F5C}">
+            <xm:f>Metrics!$B$10</xm:f>
+            <x14:dxf>
+              <font>
                 <color rgb="FFD9D9D9"/>
               </font>
               <fill>
@@ -11230,8 +11295,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="168" operator="equal" id="{2078C7A1-20D3-42EF-8E20-A3DBB07315E1}">
-            <xm:f>Metrics!$B$3</xm:f>
+          <x14:cfRule type="cellIs" priority="173" operator="equal" id="{78CCBF8B-2F29-4CF8-91B2-2EF8E1F61F8E}">
+            <xm:f>Metrics!$B$7</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -11243,72 +11308,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="169" operator="equal" id="{25EC9EDA-7990-4AD0-9A83-93E8DD38D621}">
-            <xm:f>Metrics!$B$4</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="2" tint="-0.5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="170" operator="equal" id="{A0B1F12D-8D60-4A37-9338-6CADF8DBFC70}">
-            <xm:f>Metrics!$B$5</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="171" operator="equal" id="{F419BB4A-278E-4AEF-8D88-4054637365F3}">
-            <xm:f>Metrics!$B$6</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="172" operator="equal" id="{BDF327A5-6157-4770-997E-5C2261BDC3D2}">
-            <xm:f>Metrics!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF336600"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="173" operator="equal" id="{FADD8E63-B939-4D29-86AD-D9BC729E4544}">
-            <xm:f>Metrics!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.35"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="174" operator="equal" id="{CCF57070-E5BD-4B92-A595-BAADA5ED6444}">
+          <x14:cfRule type="cellIs" priority="174" operator="equal" id="{D74CC9E5-41A6-42BC-95DB-203BEC4EEFE1}">
             <xm:f>Metrics!$B$8</xm:f>
             <x14:dxf>
               <font>
@@ -11324,10 +11324,23 @@
           <xm:sqref>D22:D24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="178" operator="equal" id="{9622AFFF-E7F0-49BF-8E7C-DDF0B6CADD6D}">
+          <x14:cfRule type="cellIs" priority="178" operator="equal" id="{54AC79DB-7E9E-4960-8A19-8F89172E82B5}">
             <xm:f>Metrics!$B$3</xm:f>
             <x14:dxf>
               <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC00000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="179" operator="equal" id="{B6F179F5-C054-4FD6-BAC9-72DEB0E65CBF}">
+            <xm:f>Metrics!$B$4</xm:f>
+            <x14:dxf>
+              <font>
                 <color rgb="FFD9D9D9"/>
               </font>
               <fill>
@@ -11337,8 +11350,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="179" operator="equal" id="{BD61F538-7CBA-4FC8-A7FF-B3407442AF81}">
-            <xm:f>Metrics!$B$4</xm:f>
+          <x14:cfRule type="cellIs" priority="180" operator="equal" id="{8DC2FB00-8C36-4CC4-83D7-D6DDC7D92190}">
+            <xm:f>Metrics!$B$5</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -11350,8 +11363,60 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="180" operator="equal" id="{EDB16521-3380-4BD5-99D9-20C468CFC675}">
-            <xm:f>Metrics!$B$5</xm:f>
+          <x14:cfRule type="cellIs" priority="181" operator="equal" id="{9E775071-F0BC-4C3A-912C-CCA5776353AB}">
+            <xm:f>Metrics!$B$6</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="182" operator="equal" id="{E32D3CC7-F8EB-4B10-B4A1-62457944EABF}">
+            <xm:f>Metrics!$B$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="183" operator="equal" id="{B4E08330-D6F3-4B81-8185-66D8798D59D0}">
+            <xm:f>Metrics!$B$8</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="184" operator="equal" id="{AFB6C6E0-8C44-486E-83A2-F01DF1BA89A1}">
+            <xm:f>Metrics!$B$9</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF336600"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="185" operator="equal" id="{7AF71DDD-90B0-4727-94C6-DBF0924D82C3}">
+            <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -11359,71 +11424,6 @@
               <fill>
                 <patternFill>
                   <bgColor theme="0" tint="-0.35"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="181" operator="equal" id="{42AF7293-1939-4765-BC60-B71B47503F90}">
-            <xm:f>Metrics!$B$6</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="182" operator="equal" id="{AF56B937-39B9-4FD5-9C10-5737D8E06278}">
-            <xm:f>Metrics!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="2" tint="-0.5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="183" operator="equal" id="{5B8578DA-FD90-42DA-9765-203A25AC2BF9}">
-            <xm:f>Metrics!$B$8</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF336600"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="184" operator="equal" id="{7B76567B-FCF5-4348-9FCD-31A93862E46B}">
-            <xm:f>Metrics!$B$9</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="185" operator="equal" id="{25BB564C-8687-45C9-AB6B-CCB13C21F0A0}">
-            <xm:f>Metrics!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -11431,7 +11431,7 @@
           <xm:sqref>D5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="189" operator="equal" id="{2E79354D-86A5-468F-9998-EF232E46A199}">
+          <x14:cfRule type="cellIs" priority="189" operator="equal" id="{FD2AAFF3-9872-4ADD-815D-1EB1BEDD5EBF}">
             <xm:f>Metrics!$B$3</xm:f>
             <x14:dxf>
               <font>
@@ -11439,98 +11439,98 @@
               </font>
               <fill>
                 <patternFill>
+                  <bgColor rgb="FFC00000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="190" operator="equal" id="{CC6EA8D0-90C9-49E4-9679-62DEE749338B}">
+            <xm:f>Metrics!$B$4</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.35"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="191" operator="equal" id="{84D67F67-92C0-47D4-81F1-99DC3FACFD43}">
+            <xm:f>Metrics!$B$5</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFD9D9D9"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="192" operator="equal" id="{5594E85F-1C39-487A-BE4C-9E152E20FBE5}">
+            <xm:f>Metrics!$B$6</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="193" operator="equal" id="{1B9E4491-B739-4D77-9543-5FA5E148239D}">
+            <xm:f>Metrics!$B$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="194" operator="equal" id="{AC71DD4E-2827-4827-83B6-2F24C85018D0}">
+            <xm:f>Metrics!$B$8</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="195" operator="equal" id="{D07DF7CB-968D-49A5-B5D5-A26C13402365}">
+            <xm:f>Metrics!$B$9</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="196" operator="equal" id="{7357CBBB-DA22-4DC3-A52A-DA2036E5442D}">
+            <xm:f>Metrics!$B$10</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
                   <bgColor rgb="FF336600"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="190" operator="equal" id="{62AFC0BF-CD2F-4826-9B45-49347C9028D8}">
-            <xm:f>Metrics!$B$4</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="191" operator="equal" id="{8413B77B-CC6E-4270-8784-1E70B0171EFE}">
-            <xm:f>Metrics!$B$5</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="192" operator="equal" id="{DFDCB3F1-5133-4FC6-BCD6-6332BC872030}">
-            <xm:f>Metrics!$B$6</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.35"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="193" operator="equal" id="{204FADAE-8D1E-43D6-966A-C7BC4A978823}">
-            <xm:f>Metrics!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="2" tint="-0.5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="194" operator="equal" id="{6823F225-1BC9-4F43-A81C-39F1689B4140}">
-            <xm:f>Metrics!$B$8</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFD9D9D9"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="195" operator="equal" id="{9286D034-2187-4DF4-9CEA-5822695A4452}">
-            <xm:f>Metrics!$B$9</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="196" operator="equal" id="{CFB6BDF1-6C78-40A6-A559-6BFE70B587A2}">
-            <xm:f>Metrics!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -11538,7 +11538,7 @@
           <xm:sqref>D19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="200" operator="equal" id="{58516394-5BB7-478B-8000-84D054F0831F}">
+          <x14:cfRule type="cellIs" priority="200" operator="equal" id="{D8FD1BDD-8230-4957-8D97-4A4847874388}">
             <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
@@ -11546,39 +11546,52 @@
               </font>
               <fill>
                 <patternFill>
+                  <bgColor theme="0" tint="-0.35"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="201" operator="equal" id="{7BD42599-EC30-496C-AC26-4EB444BDE9F5}">
+            <xm:f>Metrics!$B$9</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFD9D9D9"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="202" operator="equal" id="{EDA976A1-868D-4B2C-B987-6A00934A129C}">
+            <xm:f>Metrics!$B$8</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="203" operator="equal" id="{572D64C2-CD6E-4829-8EBC-F63AF04C1D5D}">
+            <xm:f>Metrics!$B$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
                   <bgColor rgb="FFC00000"/>
                 </patternFill>
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="201" operator="equal" id="{10442724-9D21-4DD0-8934-8AA547D37B3D}">
-            <xm:f>Metrics!$B$9</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFD9D9D9"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="202" operator="equal" id="{C870C1C1-9687-4A57-9189-13373AEF719B}">
-            <xm:f>Metrics!$B$8</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="203" operator="equal" id="{D12AF130-C0EB-4F76-BAE1-62DE73146570}">
-            <xm:f>Metrics!$B$7</xm:f>
+          <x14:cfRule type="cellIs" priority="204" operator="equal" id="{1BD08546-A5F0-40C0-BF58-A140F0301228}">
+            <xm:f>Metrics!$B$6</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -11590,8 +11603,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="204" operator="equal" id="{3889C568-B64D-4232-83CC-CFB1ABC59D1E}">
-            <xm:f>Metrics!$B$6</xm:f>
+          <x14:cfRule type="cellIs" priority="205" operator="equal" id="{859169F4-5EA1-45B7-94AB-A8593DFF4E3F}">
+            <xm:f>Metrics!$B$5</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -11603,8 +11616,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="205" operator="equal" id="{21F8A39D-6B5F-4DAD-8939-19F423F03112}">
-            <xm:f>Metrics!$B$5</xm:f>
+          <x14:cfRule type="cellIs" priority="206" operator="equal" id="{BFC782BE-9FDC-43F0-A486-F4F5138C3AAF}">
+            <xm:f>Metrics!$B$4</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -11616,8 +11629,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="206" operator="equal" id="{D9259E41-EE1C-43EA-A480-7B3BE3BBAF78}">
-            <xm:f>Metrics!$B$4</xm:f>
+          <x14:cfRule type="cellIs" priority="207" operator="equal" id="{2BC491D0-2789-4D60-A9C7-50D9788840D9}">
+            <xm:f>Metrics!$B$3</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -11625,19 +11638,6 @@
               <fill>
                 <patternFill>
                   <bgColor rgb="FF336600"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="207" operator="equal" id="{72608B45-FC8C-4EB7-83CC-DEDD80AFF18D}">
-            <xm:f>Metrics!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.35"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -11645,10 +11645,36 @@
           <xm:sqref>D17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="211" operator="equal" id="{6753E4C3-1EA7-4C75-B4FD-69FDE3E0D081}">
+          <x14:cfRule type="cellIs" priority="211" operator="equal" id="{A06D13B3-B7CD-422E-BBC1-7330474F9838}">
             <xm:f>Metrics!$B$3</xm:f>
             <x14:dxf>
               <font>
+                <color rgb="FFD9D9D9"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="212" operator="equal" id="{CFC76CAD-5B9F-4F1C-8AA6-DEF444D84F7E}">
+            <xm:f>Metrics!$B$4</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="213" operator="equal" id="{EE724A99-3D51-4252-9ADA-F67CE3FCA0AF}">
+            <xm:f>Metrics!$B$5</xm:f>
+            <x14:dxf>
+              <font>
                 <color rgb="FFFFFFFF"/>
               </font>
               <fill>
@@ -11658,8 +11684,21 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="212" operator="equal" id="{D81B99C6-CABE-46B0-B4FD-34D517D274DE}">
-            <xm:f>Metrics!$B$4</xm:f>
+          <x14:cfRule type="cellIs" priority="214" operator="equal" id="{4277B860-E26E-4A31-9E12-A92A4060BB6F}">
+            <xm:f>Metrics!$B$6</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC00000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="215" operator="equal" id="{DF702839-C4BD-4CDA-B15F-A85AFC993C34}">
+            <xm:f>Metrics!$B$7</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -11671,34 +11710,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="213" operator="equal" id="{233881A7-9C50-4167-AEE3-3CDABB3ED53E}">
-            <xm:f>Metrics!$B$5</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="214" operator="equal" id="{51D1EDA7-AB93-4983-BDD8-527FCF59FFAF}">
-            <xm:f>Metrics!$B$6</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="215" operator="equal" id="{B9FC3540-5F5B-4863-922C-4DF4A49F4AAF}">
-            <xm:f>Metrics!$B$7</xm:f>
+          <x14:cfRule type="cellIs" priority="216" operator="equal" id="{F3B98AC2-6760-4EB0-B21C-CFF3360025B3}">
+            <xm:f>Metrics!$B$8</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -11710,8 +11723,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="216" operator="equal" id="{9A8FA967-DE9F-4C3D-A57D-3FCED044E1B2}">
-            <xm:f>Metrics!$B$8</xm:f>
+          <x14:cfRule type="cellIs" priority="217" operator="equal" id="{63BFA3AB-CDEE-4B3E-919C-659060A34F56}">
+            <xm:f>Metrics!$B$9</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -11723,20 +11736,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="217" operator="equal" id="{8219ED11-95E9-4FC8-9E46-56DB7F35FB38}">
-            <xm:f>Metrics!$B$9</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFD9D9D9"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="218" operator="equal" id="{C7DF76B2-47E1-4598-903E-61744027691B}">
+          <x14:cfRule type="cellIs" priority="218" operator="equal" id="{B0837BC7-BE46-4623-B525-40133336A0E1}">
             <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
@@ -11752,7 +11752,7 @@
           <xm:sqref>D15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="222" operator="equal" id="{FA7C5959-F040-42DF-B9D9-52F079F5B066}">
+          <x14:cfRule type="cellIs" priority="222" operator="equal" id="{FF1B3918-AB96-4376-8780-E7FA96E937D6}">
             <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
@@ -11765,7 +11765,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="223" operator="equal" id="{208A76EE-4FA8-4EC3-B842-E6F899B22440}">
+          <x14:cfRule type="cellIs" priority="223" operator="equal" id="{F3E5249F-9649-48D3-92E7-8BCDD7919D98}">
             <xm:f>Metrics!$B$9</xm:f>
             <x14:dxf>
               <font>
@@ -11778,7 +11778,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="224" operator="equal" id="{BCECEEAE-2115-4A5D-A187-40387DD3344D}">
+          <x14:cfRule type="cellIs" priority="224" operator="equal" id="{D2CCCE7B-FE55-4378-B672-40ADD7907D91}">
             <xm:f>Metrics!$B$8</xm:f>
             <x14:dxf>
               <font>
@@ -11786,13 +11786,26 @@
               </font>
               <fill>
                 <patternFill>
+                  <bgColor theme="0" tint="-0.35"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="225" operator="equal" id="{47F79B82-D1B9-4DB7-BC5B-273B6C231E3F}">
+            <xm:f>Metrics!$B$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
                   <bgColor rgb="FFC00000"/>
                 </patternFill>
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="225" operator="equal" id="{E11D12F0-98AE-41A6-91E1-D257704855AE}">
-            <xm:f>Metrics!$B$7</xm:f>
+          <x14:cfRule type="cellIs" priority="226" operator="equal" id="{D8B3A65D-5CF1-48F5-B618-6257DCB914A5}">
+            <xm:f>Metrics!$B$6</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -11804,8 +11817,21 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="226" operator="equal" id="{DAA2F9F2-13D8-4BB8-B0C9-B768F22229DC}">
-            <xm:f>Metrics!$B$6</xm:f>
+          <x14:cfRule type="cellIs" priority="227" operator="equal" id="{FCA367B6-3FD0-4800-99D6-E079E1B828B8}">
+            <xm:f>Metrics!$B$5</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF336600"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="228" operator="equal" id="{A18AF78E-431D-4F10-BB93-3B69D8404C3C}">
+            <xm:f>Metrics!$B$3</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -11817,8 +11843,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="227" operator="equal" id="{38AB59CF-7D9F-459D-A56F-5CCC8EECB095}">
-            <xm:f>Metrics!$B$5</xm:f>
+          <x14:cfRule type="cellIs" priority="229" operator="equal" id="{86AEC9F5-56B6-4AF7-935F-8ED0219C3AC7}">
+            <xm:f>Metrics!$B$4</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -11826,32 +11852,6 @@
               <fill>
                 <patternFill>
                   <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="228" operator="equal" id="{C59273C4-94E6-4276-9CCF-FDF59DAD90B5}">
-            <xm:f>Metrics!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF336600"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="229" operator="equal" id="{B3441645-572F-4892-99C0-77BB2D51726D}">
-            <xm:f>Metrics!$B$4</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.35"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -11859,7 +11859,7 @@
           <xm:sqref>D12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="233" operator="equal" id="{3BC59455-6F80-4F29-B07B-B778829970FB}">
+          <x14:cfRule type="cellIs" priority="233" operator="equal" id="{E0D2B04E-DA2D-48C2-A74A-1431A056A7C8}">
             <xm:f>Metrics!$B$3</xm:f>
             <x14:dxf>
               <font>
@@ -11867,26 +11867,91 @@
               </font>
               <fill>
                 <patternFill>
+                  <bgColor rgb="FF336600"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="234" operator="equal" id="{7FAE79A5-C4BE-4BBE-AB22-234564312143}">
+            <xm:f>Metrics!$B$4</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="235" operator="equal" id="{63E97FC0-11D1-47D7-A052-4E514026782D}">
+            <xm:f>Metrics!$B$5</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC00000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="236" operator="equal" id="{904E939D-5AEB-4F7D-9FE9-4664E7A04380}">
+            <xm:f>Metrics!$B$6</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
                   <bgColor theme="0" tint="-0.35"/>
                 </patternFill>
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="234" operator="equal" id="{E08B188B-4C29-494C-975D-3661BACC3A92}">
-            <xm:f>Metrics!$B$4</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF336600"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="235" operator="equal" id="{E791CFEB-821D-42A2-89D0-70ADB14A401F}">
-            <xm:f>Metrics!$B$5</xm:f>
+          <x14:cfRule type="cellIs" priority="237" operator="equal" id="{3667E07E-8AF9-4BDF-B337-B7B020847848}">
+            <xm:f>Metrics!$B$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="238" operator="equal" id="{12E11A4E-19BE-4F8E-BFB6-C15558B01EB0}">
+            <xm:f>Metrics!$B$8</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFD9D9D9"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="239" operator="equal" id="{D5D05C60-BB73-4EEE-B6EF-54FD9DD03BB0}">
+            <xm:f>Metrics!$B$9</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="240" operator="equal" id="{90307DAC-4410-4CC0-BEA1-D057106360A0}">
+            <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -11894,71 +11959,6 @@
               <fill>
                 <patternFill>
                   <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="236" operator="equal" id="{A4FFD5EC-C39D-42CA-A52B-167465EBD375}">
-            <xm:f>Metrics!$B$6</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="237" operator="equal" id="{93D65329-7613-45F1-AE7A-B5FD46DE2E52}">
-            <xm:f>Metrics!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="2" tint="-0.5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="238" operator="equal" id="{693FEF30-E2DE-4438-B089-86E06E40D23C}">
-            <xm:f>Metrics!$B$8</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="239" operator="equal" id="{41A9D2B1-A16F-4F16-A322-E4D6AC4E8882}">
-            <xm:f>Metrics!$B$9</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="240" operator="equal" id="{F1B78653-266D-47FE-8DB5-BD70FB22B75C}">
-            <xm:f>Metrics!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFD9D9D9"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -11966,7 +11966,7 @@
           <xm:sqref>D10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="244" operator="equal" id="{23511C88-BD1A-4EFD-A2FB-BAD05B88A93C}">
+          <x14:cfRule type="cellIs" priority="244" operator="equal" id="{7E92A482-29C6-4035-AE73-EB2E54137069}">
             <xm:f>Metrics!$B$8</xm:f>
             <x14:dxf>
               <font>
@@ -11974,38 +11974,38 @@
               </font>
               <fill>
                 <patternFill>
+                  <bgColor rgb="FFC00000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="245" operator="equal" id="{9FAA25B3-87B8-49B9-A57B-803253A0A6DE}">
+            <xm:f>Metrics!$B$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFD9D9D9"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="246" operator="equal" id="{18502E7C-78FE-4AB0-AD7B-B77FE7DFF8BE}">
+            <xm:f>Metrics!$B$4</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
                   <bgColor rgb="FFFF0000"/>
                 </patternFill>
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="245" operator="equal" id="{29005B66-7D84-4576-B728-C35A9B1B9255}">
-            <xm:f>Metrics!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="246" operator="equal" id="{8B6C23B7-D773-4886-A135-2D322248DDB0}">
-            <xm:f>Metrics!$B$4</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFD9D9D9"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="247" operator="equal" id="{B8537C86-9A2B-46C0-A8FD-E46BE3A16585}">
+          <x14:cfRule type="cellIs" priority="247" operator="equal" id="{9F3C4A72-9919-4FEB-B3AD-65BDB59AD2E7}">
             <xm:f>Metrics!$B$5</xm:f>
             <x14:dxf>
               <font>
@@ -12018,7 +12018,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="248" operator="equal" id="{F46126CC-EE8E-4EFC-8BF0-CA14D1EBA0A4}">
+          <x14:cfRule type="cellIs" priority="248" operator="equal" id="{156096CF-453A-42F1-A4C9-6EB8D10047B0}">
             <xm:f>Metrics!$B$6</xm:f>
             <x14:dxf>
               <font>
@@ -12031,7 +12031,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="249" operator="equal" id="{2276B9A0-71B7-44D1-8F77-1BFFB91D64D3}">
+          <x14:cfRule type="cellIs" priority="249" operator="equal" id="{8FB4C3D4-76F4-46CC-9654-413C82D560B9}">
             <xm:f>Metrics!$B$7</xm:f>
             <x14:dxf>
               <font>
@@ -12039,33 +12039,33 @@
               </font>
               <fill>
                 <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="250" operator="equal" id="{CB864C22-16B8-4487-AFD8-9F23C029152A}">
+            <xm:f>Metrics!$B$9</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF336600"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="251" operator="equal" id="{50EE1851-F6A8-40B1-8F84-B3658F564A12}">
+            <xm:f>Metrics!$B$10</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
                   <bgColor theme="0" tint="-0.35"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="250" operator="equal" id="{CE26D061-9EED-4F13-879D-5B94D2FDA91C}">
-            <xm:f>Metrics!$B$9</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="251" operator="equal" id="{7ECB91FC-4D5B-4377-B6A3-6DAB4F5088C5}">
-            <xm:f>Metrics!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF336600"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -12090,7 +12090,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="E27" activeCellId="0" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.578125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12145,7 +12145,7 @@
         <v>101</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="E4" s="71"/>
     </row>
@@ -12157,7 +12157,7 @@
         <v>103</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="E5" s="71"/>
     </row>
@@ -12169,7 +12169,7 @@
         <v>105</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="E6" s="71"/>
     </row>
@@ -12181,7 +12181,7 @@
         <v>107</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="E7" s="71"/>
     </row>
@@ -12193,7 +12193,7 @@
         <v>109</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="E8" s="71"/>
     </row>
@@ -12205,7 +12205,7 @@
         <v>111</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="E9" s="71"/>
     </row>
@@ -12217,7 +12217,7 @@
         <v>113</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="E10" s="71"/>
     </row>
@@ -12241,7 +12241,7 @@
         <v>117</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E12" s="71"/>
     </row>
@@ -12253,7 +12253,7 @@
         <v>119</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E13" s="71"/>
     </row>
@@ -12301,7 +12301,7 @@
         <v>127</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E17" s="71"/>
     </row>
@@ -12337,40 +12337,40 @@
         <v>133</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="E20" s="71"/>
     </row>
     <row r="21" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="C21" s="70" t="s">
-        <v>136</v>
-      </c>
       <c r="D21" s="32" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="E21" s="71"/>
     </row>
     <row r="22" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="70" t="s">
-        <v>138</v>
-      </c>
       <c r="D22" s="32" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E22" s="71"/>
     </row>
     <row r="23" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="70" t="s">
         <v>139</v>
-      </c>
-      <c r="C23" s="70" t="s">
-        <v>140</v>
       </c>
       <c r="D23" s="32" t="s">
         <v>27</v>
@@ -12379,10 +12379,10 @@
     </row>
     <row r="24" s="29" customFormat="true" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="72" t="s">
         <v>141</v>
-      </c>
-      <c r="C24" s="72" t="s">
-        <v>142</v>
       </c>
       <c r="D24" s="32" t="s">
         <v>33</v>
@@ -12391,10 +12391,10 @@
     </row>
     <row r="25" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="70" t="s">
         <v>143</v>
-      </c>
-      <c r="C25" s="70" t="s">
-        <v>144</v>
       </c>
       <c r="D25" s="32" t="s">
         <v>33</v>
@@ -12403,10 +12403,10 @@
     </row>
     <row r="26" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="70" t="s">
         <v>145</v>
-      </c>
-      <c r="C26" s="70" t="s">
-        <v>146</v>
       </c>
       <c r="D26" s="32" t="s">
         <v>33</v>
@@ -12415,10 +12415,10 @@
     </row>
     <row r="27" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="69" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="70" t="s">
         <v>147</v>
-      </c>
-      <c r="C27" s="70" t="s">
-        <v>148</v>
       </c>
       <c r="D27" s="32" t="s">
         <v>33</v>
@@ -12427,236 +12427,236 @@
     </row>
     <row r="28" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="70" t="s">
-        <v>150</v>
-      </c>
       <c r="D28" s="32" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="E28" s="71"/>
     </row>
     <row r="29" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="69" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C29" s="70" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="E29" s="71"/>
     </row>
     <row r="30" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="69" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C30" s="70" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="E30" s="71"/>
     </row>
     <row r="31" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="69" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C31" s="70" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="E31" s="71"/>
     </row>
     <row r="32" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="69" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C32" s="70" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="E32" s="71"/>
     </row>
     <row r="33" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="69" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C33" s="70" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="E33" s="71"/>
     </row>
     <row r="34" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="69" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C34" s="70" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="E34" s="71"/>
     </row>
     <row r="35" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="69" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C35" s="70" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="E35" s="71"/>
     </row>
     <row r="36" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="69" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C36" s="70" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="E36" s="71"/>
     </row>
     <row r="37" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="69" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C37" s="70" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="E37" s="71"/>
     </row>
     <row r="38" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="69" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C38" s="70" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="E38" s="71"/>
     </row>
     <row r="39" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="69" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C39" s="70" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="E39" s="71"/>
     </row>
     <row r="40" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="69" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C40" s="70" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="E40" s="71"/>
     </row>
     <row r="41" s="66" customFormat="true" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="67" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C41" s="68" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D41" s="68"/>
       <c r="E41" s="68"/>
     </row>
     <row r="42" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="69" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C42" s="70" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="E42" s="71"/>
     </row>
     <row r="43" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="69" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C43" s="70" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>183</v>
+        <v>33</v>
       </c>
       <c r="E43" s="71"/>
     </row>
     <row r="44" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="69" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C44" s="70" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E44" s="71"/>
     </row>
     <row r="45" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="69" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C45" s="70" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>188</v>
+        <v>33</v>
       </c>
       <c r="E45" s="71"/>
     </row>
     <row r="46" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="69" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C46" s="70" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="E46" s="71"/>
     </row>
     <row r="47" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="69" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C47" s="70" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D47" s="32" t="s">
         <v>33</v>
@@ -12665,44 +12665,44 @@
     </row>
     <row r="48" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="69" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C48" s="70" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E48" s="71"/>
     </row>
     <row r="49" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="69" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C49" s="70" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="E49" s="71"/>
     </row>
     <row r="50" s="66" customFormat="true" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="67" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C50" s="68" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D50" s="68"/>
       <c r="E50" s="68"/>
     </row>
     <row r="51" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="69" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C51" s="70" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D51" s="32" t="s">
         <v>33</v>
@@ -12711,10 +12711,10 @@
     </row>
     <row r="52" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="69" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C52" s="70" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D52" s="32" t="s">
         <v>33</v>
@@ -12723,10 +12723,10 @@
     </row>
     <row r="53" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="69" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C53" s="70" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D53" s="32" t="s">
         <v>33</v>
@@ -12735,10 +12735,10 @@
     </row>
     <row r="54" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="69" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C54" s="70" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D54" s="32" t="s">
         <v>33</v>
@@ -12747,10 +12747,10 @@
     </row>
     <row r="55" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="69" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C55" s="70" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D55" s="32" t="s">
         <v>33</v>
@@ -12759,10 +12759,10 @@
     </row>
     <row r="56" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="69" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C56" s="70" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D56" s="32" t="s">
         <v>33</v>
@@ -12771,10 +12771,10 @@
     </row>
     <row r="57" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="69" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C57" s="70" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D57" s="32" t="s">
         <v>33</v>
@@ -12783,10 +12783,10 @@
     </row>
     <row r="58" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="69" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C58" s="70" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D58" s="32" t="s">
         <v>33</v>
@@ -12795,10 +12795,10 @@
     </row>
     <row r="59" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="69" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C59" s="70" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D59" s="32" t="s">
         <v>33</v>
@@ -12807,10 +12807,10 @@
     </row>
     <row r="60" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="69" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C60" s="70" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D60" s="32" t="s">
         <v>33</v>
@@ -12819,10 +12819,10 @@
     </row>
     <row r="61" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="69" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C61" s="70" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D61" s="32" t="s">
         <v>33</v>
@@ -12831,10 +12831,10 @@
     </row>
     <row r="62" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="69" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C62" s="70" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D62" s="32" t="s">
         <v>33</v>
@@ -12843,10 +12843,10 @@
     </row>
     <row r="63" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="69" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C63" s="70" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D63" s="32" t="s">
         <v>33</v>
@@ -12855,44 +12855,44 @@
     </row>
     <row r="64" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="69" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C64" s="70" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E64" s="71"/>
     </row>
     <row r="65" s="66" customFormat="true" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="67" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C65" s="68" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D65" s="68"/>
       <c r="E65" s="68"/>
     </row>
     <row r="66" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="69" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C66" s="70" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E66" s="71"/>
     </row>
     <row r="67" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="69" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C67" s="70" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D67" s="32" t="s">
         <v>27</v>
@@ -12901,10 +12901,10 @@
     </row>
     <row r="68" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="69" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C68" s="70" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D68" s="32" t="s">
         <v>27</v>
@@ -12913,10 +12913,10 @@
     </row>
     <row r="69" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="69" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C69" s="70" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D69" s="32" t="s">
         <v>27</v>
@@ -12925,10 +12925,10 @@
     </row>
     <row r="70" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="69" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C70" s="70" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D70" s="32" t="s">
         <v>27</v>
@@ -12937,10 +12937,10 @@
     </row>
     <row r="71" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="69" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C71" s="70" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D71" s="32" t="s">
         <v>27</v>
@@ -12949,10 +12949,10 @@
     </row>
     <row r="72" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="69" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C72" s="70" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D72" s="32" t="s">
         <v>27</v>
@@ -12961,10 +12961,10 @@
     </row>
     <row r="73" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="69" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C73" s="70" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D73" s="32" t="s">
         <v>27</v>
@@ -12973,10 +12973,10 @@
     </row>
     <row r="74" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="69" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C74" s="70" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D74" s="32" t="s">
         <v>33</v>
@@ -12985,10 +12985,10 @@
     </row>
     <row r="75" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="69" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C75" s="70" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D75" s="32" t="s">
         <v>33</v>
@@ -12997,10 +12997,10 @@
     </row>
     <row r="76" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="69" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C76" s="70" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D76" s="32" t="s">
         <v>27</v>
@@ -13009,10 +13009,10 @@
     </row>
     <row r="77" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B77" s="69" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C77" s="70" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D77" s="32" t="s">
         <v>33</v>
@@ -13021,10 +13021,10 @@
     </row>
     <row r="78" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="69" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C78" s="70" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D78" s="32" t="s">
         <v>27</v>
@@ -13033,10 +13033,10 @@
     </row>
     <row r="79" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B79" s="69" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C79" s="70" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D79" s="32" t="s">
         <v>33</v>
@@ -13045,10 +13045,10 @@
     </row>
     <row r="80" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="69" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C80" s="70" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D80" s="32" t="s">
         <v>27</v>
@@ -13057,10 +13057,10 @@
     </row>
     <row r="81" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B81" s="69" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C81" s="70" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D81" s="32" t="s">
         <v>33</v>
@@ -13069,10 +13069,10 @@
     </row>
     <row r="82" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B82" s="69" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C82" s="70" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D82" s="32" t="s">
         <v>33</v>
@@ -13081,10 +13081,10 @@
     </row>
     <row r="83" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B83" s="69" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C83" s="70" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D83" s="32" t="s">
         <v>27</v>
@@ -13093,10 +13093,10 @@
     </row>
     <row r="84" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B84" s="69" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C84" s="70" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D84" s="32" t="s">
         <v>27</v>
@@ -13105,10 +13105,10 @@
     </row>
     <row r="85" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B85" s="69" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C85" s="70" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D85" s="32" t="s">
         <v>27</v>
@@ -13117,10 +13117,10 @@
     </row>
     <row r="86" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B86" s="69" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C86" s="70" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D86" s="32" t="s">
         <v>27</v>
@@ -13129,10 +13129,10 @@
     </row>
     <row r="87" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B87" s="69" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C87" s="70" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D87" s="32" t="s">
         <v>27</v>
@@ -13141,10 +13141,10 @@
     </row>
     <row r="88" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B88" s="69" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C88" s="70" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D88" s="32" t="s">
         <v>27</v>
@@ -13153,10 +13153,10 @@
     </row>
     <row r="89" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B89" s="69" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C89" s="70" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D89" s="32" t="s">
         <v>33</v>
@@ -13165,34 +13165,34 @@
     </row>
     <row r="90" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B90" s="69" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C90" s="70" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D90" s="32" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E90" s="71"/>
     </row>
     <row r="91" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B91" s="69" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C91" s="70" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D91" s="32" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E91" s="71"/>
     </row>
     <row r="92" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B92" s="69" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C92" s="70" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D92" s="32" t="s">
         <v>33</v>
@@ -13201,10 +13201,10 @@
     </row>
     <row r="93" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B93" s="69" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C93" s="70" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D93" s="32" t="s">
         <v>33</v>
@@ -13213,10 +13213,10 @@
     </row>
     <row r="94" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B94" s="69" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C94" s="70" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D94" s="32" t="s">
         <v>27</v>
@@ -13225,22 +13225,22 @@
     </row>
     <row r="95" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B95" s="69" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C95" s="70" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D95" s="32" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="E95" s="71"/>
     </row>
     <row r="96" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B96" s="69" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C96" s="70" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D96" s="32" t="s">
         <v>33</v>
@@ -13249,22 +13249,22 @@
     </row>
     <row r="97" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B97" s="69" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C97" s="70" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D97" s="32" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E97" s="71"/>
     </row>
     <row r="98" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B98" s="69" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C98" s="70" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D98" s="32" t="s">
         <v>33</v>
@@ -13273,10 +13273,10 @@
     </row>
     <row r="99" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B99" s="69" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C99" s="70" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D99" s="32" t="s">
         <v>33</v>
@@ -13292,7 +13292,7 @@
         <v>93</v>
       </c>
       <c r="E100" s="76" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="101" s="77" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13435,7 +13435,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{6B75DF45-98A8-459A-AA91-7D1B84EAB3E4}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{8DAB9290-CD63-4BD2-80E8-D6D789AB001A}">
             <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
@@ -13448,7 +13448,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{52665769-5A60-4D9C-BA5E-B0B8DB26F3B5}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{D085B7AD-3472-48D2-84E7-1F609C8D1010}">
             <xm:f>Metrics!$B$3</xm:f>
             <x14:dxf>
               <font>
@@ -13461,7 +13461,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{4461D5AF-B824-452E-ADFD-64E087FDB91D}">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{90E96E45-BA61-4D77-ADDD-AB44797C2E91}">
             <xm:f>Metrics!$B$4</xm:f>
             <x14:dxf>
               <font>
@@ -13474,7 +13474,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{B68FC184-73B3-45BF-A5BB-2A7A6FA6809D}">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{171FF77C-EAF8-487C-93AB-5DE288D7E0AC}">
             <xm:f>Metrics!$B$5</xm:f>
             <x14:dxf>
               <font>
@@ -13487,7 +13487,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{B5C0EE86-7D8A-4196-A0C0-4711EDE810D0}">
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{8812C137-8EE6-45BA-8BE0-403423FE6539}">
             <xm:f>Metrics!$B$6</xm:f>
             <x14:dxf>
               <font>
@@ -13500,7 +13500,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{70FE1899-E189-4E25-B3BC-9B7112386970}">
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{748E84B4-DD4B-4459-9AC6-BE778A3E8013}">
             <xm:f>Metrics!$B$7</xm:f>
             <x14:dxf>
               <font>
@@ -13513,7 +13513,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{7C5610C7-CFA7-4096-8D60-D029C36355BD}">
+          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{A490DECE-F451-426A-A567-2590DB6F1339}">
             <xm:f>Metrics!$B$8</xm:f>
             <x14:dxf>
               <font>
@@ -13526,7 +13526,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{1BAE3EE7-508D-4AE7-85B7-3862B2175D57}">
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{1446EBAE-1289-4BE4-983E-6BB9C2688415}">
             <xm:f>Metrics!$B$9</xm:f>
             <x14:dxf>
               <font>
@@ -13542,7 +13542,7 @@
           <xm:sqref>D66:D99</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{B1541280-3399-4C6E-8AC3-738263C12544}">
+          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{A43070B2-8DB2-4380-B4EE-2BAFC66A8635}">
             <xm:f>Metrics!$B$6</xm:f>
             <x14:dxf>
               <font>
@@ -13555,7 +13555,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{E78F9C2C-46AA-49B9-BDC9-00507C508070}">
+          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{647D5C64-805F-4DD4-81A9-5D4E7B2092C7}">
             <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
@@ -13568,7 +13568,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{EF819B5E-2A92-4F70-9529-E12B1414392D}">
+          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{CD25E86C-C389-4658-B4E3-FFBC36BCFB17}">
             <xm:f>Metrics!$B$9</xm:f>
             <x14:dxf>
               <font>
@@ -13581,7 +13581,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{66D92A60-B4D3-4DA9-B0A8-C3614E727EFC}">
+          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{25383E15-74E0-46AB-A2A4-63D29979BA19}">
             <xm:f>Metrics!$B$8</xm:f>
             <x14:dxf>
               <font>
@@ -13594,7 +13594,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{EEE048F1-6F99-4F97-AD7A-8DB33E52C0F9}">
+          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{AF9E2F14-30E8-44C9-9061-BACDF0F07554}">
             <xm:f>Metrics!$B$7</xm:f>
             <x14:dxf>
               <font>
@@ -13607,7 +13607,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{F87D15EE-B588-4EC5-AAF7-90629472BBC0}">
+          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{3A362BDB-E017-4B24-AAF8-1517A05DEE59}">
             <xm:f>Metrics!$B$3</xm:f>
             <x14:dxf>
               <font>
@@ -13620,7 +13620,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{E545A335-BA97-46D3-8791-27C2327AF0D0}">
+          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{20D742CE-C5F8-48B2-A52B-E55FFEB576D1}">
             <xm:f>Metrics!$B$5</xm:f>
             <x14:dxf>
               <font>
@@ -13633,7 +13633,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{FAD8CEA1-8D39-4A57-84C5-B6F76A4B558D}">
+          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{47A61EF0-C130-4CFE-8A80-E894DD26105D}">
             <xm:f>Metrics!$B$4</xm:f>
             <x14:dxf>
               <font>
@@ -13649,7 +13649,7 @@
           <xm:sqref>D51:D64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{B122215B-DFA8-4FF0-A15A-378FB5A67222}">
+          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{5530922A-2C66-4735-B042-8B8FCBA05B3B}">
             <xm:f>Metrics!$B$3</xm:f>
             <x14:dxf>
               <font>
@@ -13662,7 +13662,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{6C3FA2D8-1418-4985-90E0-3DA8AAC75BEB}">
+          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{7F9D9710-60FD-4BB9-AD72-2A2916F8E430}">
             <xm:f>Metrics!$B$4</xm:f>
             <x14:dxf>
               <font>
@@ -13675,7 +13675,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="26" operator="equal" id="{151D5010-6085-4071-B8E9-B9735B6F3F20}">
+          <x14:cfRule type="cellIs" priority="26" operator="equal" id="{E9FBA121-E1C1-4190-B7F4-D4B4E381805C}">
             <xm:f>Metrics!$B$5</xm:f>
             <x14:dxf>
               <font>
@@ -13688,7 +13688,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="27" operator="equal" id="{65585891-419A-40F3-93F5-DDE0D6A72123}">
+          <x14:cfRule type="cellIs" priority="27" operator="equal" id="{F5ECFA50-E05B-4CFE-AFDD-70372021E230}">
             <xm:f>Metrics!$B$6</xm:f>
             <x14:dxf>
               <font>
@@ -13701,7 +13701,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="28" operator="equal" id="{48B55AB9-A08D-4C8A-81D3-5D9C8A1CD6A7}">
+          <x14:cfRule type="cellIs" priority="28" operator="equal" id="{B71A918C-D3AB-4DE2-B110-412C648CB96E}">
             <xm:f>Metrics!$B$7</xm:f>
             <x14:dxf>
               <font>
@@ -13714,7 +13714,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="29" operator="equal" id="{9BA355E2-41A5-4C92-81D4-876BE1B0BE71}">
+          <x14:cfRule type="cellIs" priority="29" operator="equal" id="{40F3D84E-9521-4410-A0B8-108BEBBE7839}">
             <xm:f>Metrics!$B$8</xm:f>
             <x14:dxf>
               <font>
@@ -13727,7 +13727,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="30" operator="equal" id="{2ACA8376-ECEE-4DE5-A58D-D09A70AAE6BC}">
+          <x14:cfRule type="cellIs" priority="30" operator="equal" id="{8B11EAE7-41FF-459B-B0E9-AC7EE271AF4A}">
             <xm:f>Metrics!$B$9</xm:f>
             <x14:dxf>
               <font>
@@ -13740,7 +13740,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="31" operator="equal" id="{4363ADB7-7E86-467F-87C4-F12033EC3773}">
+          <x14:cfRule type="cellIs" priority="31" operator="equal" id="{68A4C3AC-62C7-453C-9E21-D6A2FC87C130}">
             <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
@@ -13756,7 +13756,7 @@
           <xm:sqref>D4:D40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="35" operator="equal" id="{296A5B66-3B52-4472-A58D-16AC424EEE20}">
+          <x14:cfRule type="cellIs" priority="35" operator="equal" id="{DD4D8CE9-5D1F-4C1A-8959-889B30B07B73}">
             <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
@@ -13769,7 +13769,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="36" operator="equal" id="{324C98D5-27DD-436E-A73C-CBC7DA3557E0}">
+          <x14:cfRule type="cellIs" priority="36" operator="equal" id="{F5169757-11B1-4EE0-9817-D27C98603070}">
             <xm:f>Metrics!$B$9</xm:f>
             <x14:dxf>
               <font>
@@ -13782,7 +13782,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{4CD8CE2A-251E-4967-B51A-26A038B87D00}">
+          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{BF5168ED-575E-41DF-8789-7B74B656A2F6}">
             <xm:f>Metrics!$B$8</xm:f>
             <x14:dxf>
               <font>
@@ -13795,7 +13795,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="38" operator="equal" id="{CC45B0E2-5DCF-4696-A43B-F687F41FB9A1}">
+          <x14:cfRule type="cellIs" priority="38" operator="equal" id="{48D0BE64-B147-4191-9120-D6FB9C8E6A7A}">
             <xm:f>Metrics!$B$7</xm:f>
             <x14:dxf>
               <font>
@@ -13808,7 +13808,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="39" operator="equal" id="{C613F4C9-D3CA-4875-97D6-A536DD1D5849}">
+          <x14:cfRule type="cellIs" priority="39" operator="equal" id="{8CDD524C-7571-46B4-BC85-E58461194A2F}">
             <xm:f>Metrics!$B$6</xm:f>
             <x14:dxf>
               <font>
@@ -13821,7 +13821,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="40" operator="equal" id="{99FF85AB-6362-4C63-A4CC-F07FB6B53A6E}">
+          <x14:cfRule type="cellIs" priority="40" operator="equal" id="{646F2E86-EF81-4CF6-83A9-882084E14033}">
             <xm:f>Metrics!$B$5</xm:f>
             <x14:dxf>
               <font>
@@ -13834,7 +13834,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="41" operator="equal" id="{C7B585F2-1EA8-4D88-BB10-C3F074C650AF}">
+          <x14:cfRule type="cellIs" priority="41" operator="equal" id="{AEF8C964-3BA2-44DB-8580-50CB2B27878B}">
             <xm:f>Metrics!$B$4</xm:f>
             <x14:dxf>
               <font>
@@ -13847,7 +13847,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="42" operator="equal" id="{6BA95361-5F80-4EC2-A296-F170C8C16111}">
+          <x14:cfRule type="cellIs" priority="42" operator="equal" id="{56B84C36-80E8-4B6B-AE8F-F0A79070F9AC}">
             <xm:f>Metrics!$B$3</xm:f>
             <x14:dxf>
               <font>
@@ -13875,8 +13875,8 @@
   </sheetPr>
   <dimension ref="B2:E319"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13894,21 +13894,21 @@
         <v>22</v>
       </c>
       <c r="C2" s="83" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D2" s="84" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E2" s="85" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" s="86" customFormat="true" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="87" t="s">
-        <v>154</v>
+        <v>296</v>
       </c>
       <c r="C3" s="88" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D3" s="89" t="n">
         <f aca="false">COUNTIF('Mandatory ISMS requirements'!$D$3:$D$60,$B3)/'Mandatory ISMS requirements'!$D$61</f>
@@ -13916,15 +13916,15 @@
       </c>
       <c r="E3" s="90" t="n">
         <f aca="false">COUNTIF('Annex A controls'!$D$3:$D$99,$B3)/ControlTotal</f>
-        <v>0.139784946236559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" s="86" customFormat="true" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="91" t="s">
-        <v>183</v>
+        <v>298</v>
       </c>
       <c r="C4" s="92" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D4" s="93" t="n">
         <f aca="false">COUNTIF('Mandatory ISMS requirements'!$D$3:$D$60,$B4)/'Mandatory ISMS requirements'!$D$61</f>
@@ -13932,31 +13932,31 @@
       </c>
       <c r="E4" s="94" t="n">
         <f aca="false">COUNTIF('Annex A controls'!$D$3:$D$99,$B4)/ControlTotal</f>
-        <v>0.010752688172043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" s="86" customFormat="true" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="91" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C5" s="92" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D5" s="93" t="n">
         <f aca="false">COUNTIF('Mandatory ISMS requirements'!$D$3:$D$60,$B5)/'Mandatory ISMS requirements'!$D$61</f>
-        <v>0.464285714285714</v>
+        <v>0.25</v>
       </c>
       <c r="E5" s="94" t="n">
         <f aca="false">COUNTIF('Annex A controls'!$D$3:$D$99,$B5)/ControlTotal</f>
-        <v>0.010752688172043</v>
+        <v>0.0752688172043011</v>
       </c>
     </row>
     <row r="6" s="86" customFormat="true" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="91" t="s">
-        <v>188</v>
+        <v>301</v>
       </c>
       <c r="C6" s="92" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D6" s="93" t="n">
         <f aca="false">COUNTIF('Mandatory ISMS requirements'!$D$3:$D$60,$B6)/'Mandatory ISMS requirements'!$D$61</f>
@@ -13964,15 +13964,15 @@
       </c>
       <c r="E6" s="94" t="n">
         <f aca="false">COUNTIF('Annex A controls'!$D$3:$D$99,$B6)/ControlTotal</f>
-        <v>0.010752688172043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" s="86" customFormat="true" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="91" t="s">
-        <v>134</v>
+        <v>303</v>
       </c>
       <c r="C7" s="92" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D7" s="93" t="n">
         <f aca="false">COUNTIF('Mandatory ISMS requirements'!$D$3:$D$60,$B7)/'Mandatory ISMS requirements'!$D$61</f>
@@ -13980,7 +13980,7 @@
       </c>
       <c r="E7" s="94" t="n">
         <f aca="false">COUNTIF('Annex A controls'!$D$3:$D$99,$B7)/ControlTotal</f>
-        <v>0.032258064516129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" s="86" customFormat="true" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13988,15 +13988,15 @@
         <v>33</v>
       </c>
       <c r="C8" s="92" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D8" s="93" t="n">
         <f aca="false">COUNTIF('Mandatory ISMS requirements'!$D$3:$D$60,$B8)/'Mandatory ISMS requirements'!$D$61</f>
-        <v>0.357142857142857</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E8" s="94" t="n">
         <f aca="false">COUNTIF('Annex A controls'!$D$3:$D$99,$B8)/ControlTotal</f>
-        <v>0.419354838709677</v>
+        <v>0.731182795698925</v>
       </c>
     </row>
     <row r="9" s="86" customFormat="true" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14004,7 +14004,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="92" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D9" s="93" t="n">
         <f aca="false">COUNTIF('Mandatory ISMS requirements'!$D$3:$D$60,$B9)/'Mandatory ISMS requirements'!$D$61</f>
@@ -14012,12 +14012,12 @@
       </c>
       <c r="E9" s="94" t="n">
         <f aca="false">COUNTIF('Annex A controls'!$D$3:$D$99,$B9)/ControlTotal</f>
-        <v>0.344086021505376</v>
+        <v>0.193548387096774</v>
       </c>
     </row>
     <row r="10" s="86" customFormat="true" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="95" t="s">
-        <v>151</v>
+        <v>307</v>
       </c>
       <c r="C10" s="96" t="s">
         <v>308</v>
@@ -14028,7 +14028,7 @@
       </c>
       <c r="E10" s="98" t="n">
         <f aca="false">COUNTIF('Annex A controls'!$D$3:$D$99,$B10)/ControlTotal</f>
-        <v>0.032258064516129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
